--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10914.33879144875</v>
+        <v>11181.80260090815</v>
       </c>
       <c r="AB2" t="n">
-        <v>14933.47984110548</v>
+        <v>15299.43562487834</v>
       </c>
       <c r="AC2" t="n">
-        <v>13508.2494843404</v>
+        <v>13839.27896173214</v>
       </c>
       <c r="AD2" t="n">
-        <v>10914338.79144875</v>
+        <v>11181802.60090815</v>
       </c>
       <c r="AE2" t="n">
-        <v>14933479.84110548</v>
+        <v>15299435.62487834</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.976117822208981e-07</v>
+        <v>7.173891985238196e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.07708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>13508249.4843404</v>
+        <v>13839278.96173214</v>
       </c>
     </row>
     <row r="3">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3642.835365840215</v>
+        <v>3780.88399922193</v>
       </c>
       <c r="AB3" t="n">
-        <v>4984.288058096826</v>
+        <v>5173.172288565574</v>
       </c>
       <c r="AC3" t="n">
-        <v>4508.594601324102</v>
+        <v>4679.451985937589</v>
       </c>
       <c r="AD3" t="n">
-        <v>3642835.365840215</v>
+        <v>3780883.99922193</v>
       </c>
       <c r="AE3" t="n">
-        <v>4984288.058096826</v>
+        <v>5173172.288565574</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.440181303874029e-07</v>
+        <v>1.360957344956797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.19375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4508594.601324102</v>
+        <v>4679451.985937589</v>
       </c>
     </row>
     <row r="4">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2801.463373703715</v>
+        <v>2922.159930639892</v>
       </c>
       <c r="AB4" t="n">
-        <v>3833.085779743015</v>
+        <v>3998.228133699391</v>
       </c>
       <c r="AC4" t="n">
-        <v>3467.261452693877</v>
+        <v>3616.6428521674</v>
       </c>
       <c r="AD4" t="n">
-        <v>2801463.373703715</v>
+        <v>2922159.930639891</v>
       </c>
       <c r="AE4" t="n">
-        <v>3833085.779743015</v>
+        <v>3998228.133699392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109888724461036e-06</v>
+        <v>1.600087077798071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.38333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3467261.452693877</v>
+        <v>3616642.8521674</v>
       </c>
     </row>
     <row r="5">
@@ -6920,28 +6920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2474.751381504946</v>
+        <v>2586.814570645639</v>
       </c>
       <c r="AB5" t="n">
-        <v>3386.064018500792</v>
+        <v>3539.393817762082</v>
       </c>
       <c r="AC5" t="n">
-        <v>3062.902820945647</v>
+        <v>3201.599039365157</v>
       </c>
       <c r="AD5" t="n">
-        <v>2474751.381504946</v>
+        <v>2586814.570645639</v>
       </c>
       <c r="AE5" t="n">
-        <v>3386064.018500792</v>
+        <v>3539393.817762082</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.198586456384315e-06</v>
+        <v>1.727959441533773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3062902.820945647</v>
+        <v>3201599.039365157</v>
       </c>
     </row>
     <row r="6">
@@ -7026,28 +7026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2299.882352484572</v>
+        <v>2403.397514684355</v>
       </c>
       <c r="AB6" t="n">
-        <v>3146.800498318019</v>
+        <v>3288.434510006418</v>
       </c>
       <c r="AC6" t="n">
-        <v>2846.474275320667</v>
+        <v>2974.590935718103</v>
       </c>
       <c r="AD6" t="n">
-        <v>2299882.352484573</v>
+        <v>2403397.514684354</v>
       </c>
       <c r="AE6" t="n">
-        <v>3146800.498318019</v>
+        <v>3288434.510006418</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253584885553848e-06</v>
+        <v>1.807248719705418e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.24583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2846474.275320667</v>
+        <v>2974590.935718103</v>
       </c>
     </row>
     <row r="7">
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2184.734509300519</v>
+        <v>2288.334922846324</v>
       </c>
       <c r="AB7" t="n">
-        <v>2989.250139309102</v>
+        <v>3131.000795650325</v>
       </c>
       <c r="AC7" t="n">
-        <v>2703.960301452361</v>
+        <v>2832.182474100556</v>
       </c>
       <c r="AD7" t="n">
-        <v>2184734.509300519</v>
+        <v>2288334.922846324</v>
       </c>
       <c r="AE7" t="n">
-        <v>2989250.139309102</v>
+        <v>3131000.795650325</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291514836705251e-06</v>
+        <v>1.861930980513449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2703960.301452362</v>
+        <v>2832182.474100556</v>
       </c>
     </row>
     <row r="8">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2111.406689585134</v>
+        <v>2206.373824844005</v>
       </c>
       <c r="AB8" t="n">
-        <v>2888.919781379419</v>
+        <v>3018.858005495098</v>
       </c>
       <c r="AC8" t="n">
-        <v>2613.205332068947</v>
+        <v>2730.742434444353</v>
       </c>
       <c r="AD8" t="n">
-        <v>2111406.689585134</v>
+        <v>2206373.824844006</v>
       </c>
       <c r="AE8" t="n">
-        <v>2888919.781379419</v>
+        <v>3018858.005495098</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.318649340221254e-06</v>
+        <v>1.901049828629963e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.04791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2613205.332068947</v>
+        <v>2730742.434444353</v>
       </c>
     </row>
     <row r="9">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2047.62428883379</v>
+        <v>2151.13936152502</v>
       </c>
       <c r="AB9" t="n">
-        <v>2801.649886790504</v>
+        <v>2943.283776009346</v>
       </c>
       <c r="AC9" t="n">
-        <v>2534.26435373553</v>
+        <v>2662.380903351738</v>
       </c>
       <c r="AD9" t="n">
-        <v>2047624.28883379</v>
+        <v>2151139.361525021</v>
       </c>
       <c r="AE9" t="n">
-        <v>2801649.886790504</v>
+        <v>2943283.776009346</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339073160072009e-06</v>
+        <v>1.930494122911211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.69791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2534264.35373553</v>
+        <v>2662380.903351738</v>
       </c>
     </row>
     <row r="10">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2000.76665281948</v>
+        <v>2095.648447223778</v>
       </c>
       <c r="AB10" t="n">
-        <v>2737.53720198272</v>
+        <v>2867.358658976024</v>
       </c>
       <c r="AC10" t="n">
-        <v>2476.270493583082</v>
+        <v>2593.701972926505</v>
       </c>
       <c r="AD10" t="n">
-        <v>2000766.65281948</v>
+        <v>2095648.447223778</v>
       </c>
       <c r="AE10" t="n">
-        <v>2737537.201982719</v>
+        <v>2867358.658976024</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.356433406945151e-06</v>
+        <v>1.955521773050271e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.40625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2476270.493583082</v>
+        <v>2593701.972926505</v>
       </c>
     </row>
     <row r="11">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1966.55661259827</v>
+        <v>2061.438407002568</v>
       </c>
       <c r="AB11" t="n">
-        <v>2690.729515711603</v>
+        <v>2820.550972704907</v>
       </c>
       <c r="AC11" t="n">
-        <v>2433.930067194681</v>
+        <v>2551.361546538103</v>
       </c>
       <c r="AD11" t="n">
-        <v>1966556.61259827</v>
+        <v>2061438.407002568</v>
       </c>
       <c r="AE11" t="n">
-        <v>2690729.515711603</v>
+        <v>2820550.972704906</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36883358328311e-06</v>
+        <v>1.973398666006742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.20416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2433930.067194681</v>
+        <v>2551361.546538103</v>
       </c>
     </row>
     <row r="12">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1934.011452475837</v>
+        <v>2028.893246880134</v>
       </c>
       <c r="AB12" t="n">
-        <v>2646.199791840958</v>
+        <v>2776.021248834263</v>
       </c>
       <c r="AC12" t="n">
-        <v>2393.65019767239</v>
+        <v>2511.081677015813</v>
       </c>
       <c r="AD12" t="n">
-        <v>1934011.452475837</v>
+        <v>2028893.246880135</v>
       </c>
       <c r="AE12" t="n">
-        <v>2646199.791840958</v>
+        <v>2776021.248834263</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>1.989803344249152e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.01875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2393650.19767239</v>
+        <v>2511081.677015813</v>
       </c>
     </row>
     <row r="13">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1899.011525240294</v>
+        <v>2002.441257076952</v>
       </c>
       <c r="AB13" t="n">
-        <v>2598.311347309475</v>
+        <v>2739.828469406119</v>
       </c>
       <c r="AC13" t="n">
-        <v>2350.332159075138</v>
+        <v>2478.343085659408</v>
       </c>
       <c r="AD13" t="n">
-        <v>1899011.525240294</v>
+        <v>2002441.257076952</v>
       </c>
       <c r="AE13" t="n">
-        <v>2598311.347309475</v>
+        <v>2739828.46940612</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389111518706359e-06</v>
+        <v>2.002632643900267e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.87916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2350332.159075138</v>
+        <v>2478343.085659408</v>
       </c>
     </row>
     <row r="14">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1873.966854089657</v>
+        <v>1968.933899839975</v>
       </c>
       <c r="AB14" t="n">
-        <v>2564.044123348262</v>
+        <v>2693.982224994216</v>
       </c>
       <c r="AC14" t="n">
-        <v>2319.335350874432</v>
+        <v>2436.872342468567</v>
       </c>
       <c r="AD14" t="n">
-        <v>1873966.854089657</v>
+        <v>1968933.899839975</v>
       </c>
       <c r="AE14" t="n">
-        <v>2564044.123348262</v>
+        <v>2693982.224994216</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.397135162219156e-06</v>
+        <v>2.014200045225042e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.75416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2319335.350874432</v>
+        <v>2436872.342468567</v>
       </c>
     </row>
     <row r="15">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1854.715962572108</v>
+        <v>1949.683008322426</v>
       </c>
       <c r="AB15" t="n">
-        <v>2537.704204284557</v>
+        <v>2667.642305930511</v>
       </c>
       <c r="AC15" t="n">
-        <v>2295.509276717859</v>
+        <v>2413.046268311994</v>
       </c>
       <c r="AD15" t="n">
-        <v>1854715.962572108</v>
+        <v>1949683.008322426</v>
       </c>
       <c r="AE15" t="n">
-        <v>2537704.204284557</v>
+        <v>2667642.305930511</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.402678770464361e-06</v>
+        <v>2.022192067958524e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.66875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2295509.276717859</v>
+        <v>2413046.268311994</v>
       </c>
     </row>
     <row r="16">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1831.128880865056</v>
+        <v>1926.095926615374</v>
       </c>
       <c r="AB16" t="n">
-        <v>2505.431318504365</v>
+        <v>2635.369420150319</v>
       </c>
       <c r="AC16" t="n">
-        <v>2266.316469861249</v>
+        <v>2383.853461455383</v>
       </c>
       <c r="AD16" t="n">
-        <v>1831128.880865056</v>
+        <v>1926095.926615374</v>
       </c>
       <c r="AE16" t="n">
-        <v>2505431.318504365</v>
+        <v>2635369.420150319</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.40968122298462e-06</v>
+        <v>2.032287254569237e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.55833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2266316.469861249</v>
+        <v>2383853.461455383</v>
       </c>
     </row>
     <row r="17">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1813.168746464983</v>
+        <v>1907.96520001471</v>
       </c>
       <c r="AB17" t="n">
-        <v>2480.857470272977</v>
+        <v>2610.562160144083</v>
       </c>
       <c r="AC17" t="n">
-        <v>2244.087915215452</v>
+        <v>2361.413771526935</v>
       </c>
       <c r="AD17" t="n">
-        <v>1813168.746464983</v>
+        <v>1907965.20001471</v>
       </c>
       <c r="AE17" t="n">
-        <v>2480857.470272977</v>
+        <v>2610562.160144084</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.414349524664792e-06</v>
+        <v>2.03901737897638e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.4875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2244087.915215452</v>
+        <v>2361413.771526936</v>
       </c>
     </row>
     <row r="18">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1794.415874686674</v>
+        <v>1889.2123282364</v>
       </c>
       <c r="AB18" t="n">
-        <v>2455.198963787579</v>
+        <v>2584.903653658686</v>
       </c>
       <c r="AC18" t="n">
-        <v>2220.878220577081</v>
+        <v>2338.204076888564</v>
       </c>
       <c r="AD18" t="n">
-        <v>1794415.874686674</v>
+        <v>1889212.3282364</v>
       </c>
       <c r="AE18" t="n">
-        <v>2455198.963787579</v>
+        <v>2584903.653658686</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.419309595199976e-06</v>
+        <v>2.046168136158968e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.41458333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2220878.220577081</v>
+        <v>2338204.076888565</v>
       </c>
     </row>
     <row r="19">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1778.853102401592</v>
+        <v>1873.649555951318</v>
       </c>
       <c r="AB19" t="n">
-        <v>2433.905292166074</v>
+        <v>2563.609982037181</v>
       </c>
       <c r="AC19" t="n">
-        <v>2201.616787089276</v>
+        <v>2318.94264340076</v>
       </c>
       <c r="AD19" t="n">
-        <v>1778853.102401592</v>
+        <v>1873649.555951318</v>
       </c>
       <c r="AE19" t="n">
-        <v>2433905.292166074</v>
+        <v>2563609.982037181</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.422810821460105e-06</v>
+        <v>2.051215729464325e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.36041666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2201616.787089276</v>
+        <v>2318942.643400759</v>
       </c>
     </row>
     <row r="20">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1763.251476749254</v>
+        <v>1858.047930298981</v>
       </c>
       <c r="AB20" t="n">
-        <v>2412.5584596534</v>
+        <v>2542.263149524506</v>
       </c>
       <c r="AC20" t="n">
-        <v>2182.307266311143</v>
+        <v>2299.633122622628</v>
       </c>
       <c r="AD20" t="n">
-        <v>1763251.476749254</v>
+        <v>1858047.930298981</v>
       </c>
       <c r="AE20" t="n">
-        <v>2412558.4596534</v>
+        <v>2542263.149524506</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.425874394437719e-06</v>
+        <v>2.055632373606512e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.31458333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2182307.266311144</v>
+        <v>2299633.122622627</v>
       </c>
     </row>
     <row r="21">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1748.136832268386</v>
+        <v>1842.933285818112</v>
       </c>
       <c r="AB21" t="n">
-        <v>2391.877936263622</v>
+        <v>2521.582626134729</v>
       </c>
       <c r="AC21" t="n">
-        <v>2163.600463048389</v>
+        <v>2280.926319359873</v>
       </c>
       <c r="AD21" t="n">
-        <v>1748136.832268386</v>
+        <v>1842933.285818112</v>
       </c>
       <c r="AE21" t="n">
-        <v>2391877.936263622</v>
+        <v>2521582.626134729</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.429667389552859e-06</v>
+        <v>2.061100599687315e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.26041666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2163600.46304839</v>
+        <v>2280926.319359873</v>
       </c>
     </row>
     <row r="22">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1731.264901577742</v>
+        <v>1826.061355127468</v>
       </c>
       <c r="AB22" t="n">
-        <v>2368.793016355634</v>
+        <v>2498.49770622674</v>
       </c>
       <c r="AC22" t="n">
-        <v>2142.718735496531</v>
+        <v>2260.044591808015</v>
       </c>
       <c r="AD22" t="n">
-        <v>1731264.901577742</v>
+        <v>1826061.355127468</v>
       </c>
       <c r="AE22" t="n">
-        <v>2368793.016355634</v>
+        <v>2498497.70622674</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.433314500240494e-06</v>
+        <v>2.066358509380395e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.20416666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2142718.735496531</v>
+        <v>2260044.591808015</v>
       </c>
     </row>
     <row r="23">
@@ -8828,28 +8828,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1718.815891278601</v>
+        <v>1813.612344828327</v>
       </c>
       <c r="AB23" t="n">
-        <v>2351.759731252776</v>
+        <v>2481.464421123883</v>
       </c>
       <c r="AC23" t="n">
-        <v>2127.311083217524</v>
+        <v>2244.636939529008</v>
       </c>
       <c r="AD23" t="n">
-        <v>1718815.891278601</v>
+        <v>1813612.344828327</v>
       </c>
       <c r="AE23" t="n">
-        <v>2351759.731252776</v>
+        <v>2481464.421123883</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.435356882225569e-06</v>
+        <v>2.06930293880852e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.17291666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2127311.083217524</v>
+        <v>2244636.939529008</v>
       </c>
     </row>
     <row r="24">
@@ -8934,28 +8934,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1703.636075999742</v>
+        <v>1798.432529549468</v>
       </c>
       <c r="AB24" t="n">
-        <v>2330.990038302055</v>
+        <v>2460.694728173162</v>
       </c>
       <c r="AC24" t="n">
-        <v>2108.523620611573</v>
+        <v>2225.849476923056</v>
       </c>
       <c r="AD24" t="n">
-        <v>1703636.075999742</v>
+        <v>1798432.529549468</v>
       </c>
       <c r="AE24" t="n">
-        <v>2330990.038302055</v>
+        <v>2460694.728173162</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.437836917493161e-06</v>
+        <v>2.072878317399814e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.1375</v>
       </c>
       <c r="AH24" t="n">
-        <v>2108523.620611573</v>
+        <v>2225849.476923056</v>
       </c>
     </row>
     <row r="25">
@@ -9040,28 +9040,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1690.368307684066</v>
+        <v>1776.702075147452</v>
       </c>
       <c r="AB25" t="n">
-        <v>2312.836492359921</v>
+        <v>2430.962161780335</v>
       </c>
       <c r="AC25" t="n">
-        <v>2092.102623615493</v>
+        <v>2198.954544936842</v>
       </c>
       <c r="AD25" t="n">
-        <v>1690368.307684066</v>
+        <v>1776702.075147452</v>
       </c>
       <c r="AE25" t="n">
-        <v>2312836.49235992</v>
+        <v>2430962.161780335</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.440025183905742e-06</v>
+        <v>2.076033063215662e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.10625</v>
       </c>
       <c r="AH25" t="n">
-        <v>2092102.623615493</v>
+        <v>2198954.544936842</v>
       </c>
     </row>
     <row r="26">
@@ -9146,28 +9146,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1686.613569487291</v>
+        <v>1772.947336950676</v>
       </c>
       <c r="AB26" t="n">
-        <v>2307.699093911734</v>
+        <v>2425.824763332148</v>
       </c>
       <c r="AC26" t="n">
-        <v>2087.455531264817</v>
+        <v>2194.307452586167</v>
       </c>
       <c r="AD26" t="n">
-        <v>1686613.56948729</v>
+        <v>1772947.336950676</v>
       </c>
       <c r="AE26" t="n">
-        <v>2307699.093911733</v>
+        <v>2425824.763332149</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.441192259325785e-06</v>
+        <v>2.077715594317447e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21.0875</v>
       </c>
       <c r="AH26" t="n">
-        <v>2087455.531264817</v>
+        <v>2194307.452586167</v>
       </c>
     </row>
     <row r="27">
@@ -9252,28 +9252,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1692.577947760056</v>
+        <v>1778.911715223442</v>
       </c>
       <c r="AB27" t="n">
-        <v>2315.85981939433</v>
+        <v>2433.985488814746</v>
       </c>
       <c r="AC27" t="n">
-        <v>2094.837408561005</v>
+        <v>2201.689329882354</v>
       </c>
       <c r="AD27" t="n">
-        <v>1692577.947760056</v>
+        <v>1778911.715223442</v>
       </c>
       <c r="AE27" t="n">
-        <v>2315859.81939433</v>
+        <v>2433985.488814746</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.077505277929724e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>21.08958333333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>2094837.408561005</v>
+        <v>2201689.329882354</v>
       </c>
     </row>
   </sheetData>
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6605.18170087284</v>
+        <v>6807.114614846892</v>
       </c>
       <c r="AB2" t="n">
-        <v>9037.501003185394</v>
+        <v>9313.794524736133</v>
       </c>
       <c r="AC2" t="n">
-        <v>8174.974591653363</v>
+        <v>8424.899047287679</v>
       </c>
       <c r="AD2" t="n">
-        <v>6605181.70087284</v>
+        <v>6807114.614846893</v>
       </c>
       <c r="AE2" t="n">
-        <v>9037501.003185395</v>
+        <v>9313794.524736132</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.546710017763942e-07</v>
+        <v>9.584137185630838e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.02708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>8174974.591653363</v>
+        <v>8424899.04728768</v>
       </c>
     </row>
     <row r="3">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2870.907947877983</v>
+        <v>2996.998709002436</v>
       </c>
       <c r="AB3" t="n">
-        <v>3928.102909806642</v>
+        <v>4100.625851908912</v>
       </c>
       <c r="AC3" t="n">
-        <v>3553.210281221608</v>
+        <v>3709.2678758671</v>
       </c>
       <c r="AD3" t="n">
-        <v>2870907.947877983</v>
+        <v>2996998.709002436</v>
       </c>
       <c r="AE3" t="n">
-        <v>3928102.909806642</v>
+        <v>4100625.851908912</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.066368210823421e-06</v>
+        <v>1.56112294499003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.48333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3553210.281221608</v>
+        <v>3709267.8758671</v>
       </c>
     </row>
     <row r="4">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2305.376012680852</v>
+        <v>2423.049260741752</v>
       </c>
       <c r="AB4" t="n">
-        <v>3154.317166561752</v>
+        <v>3315.322895935999</v>
       </c>
       <c r="AC4" t="n">
-        <v>2853.273563296927</v>
+        <v>2998.913131832651</v>
       </c>
       <c r="AD4" t="n">
-        <v>2305376.012680852</v>
+        <v>2423049.260741752</v>
       </c>
       <c r="AE4" t="n">
-        <v>3154317.166561752</v>
+        <v>3315322.895935999</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216529033038154e-06</v>
+        <v>1.780952739819506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2853273.563296928</v>
+        <v>2998913.131832651</v>
       </c>
     </row>
     <row r="5">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2080.590945995978</v>
+        <v>2181.514777309994</v>
       </c>
       <c r="AB5" t="n">
-        <v>2846.756321506078</v>
+        <v>2984.844759955115</v>
       </c>
       <c r="AC5" t="n">
-        <v>2575.065893629129</v>
+        <v>2699.97536532093</v>
       </c>
       <c r="AD5" t="n">
-        <v>2080590.945995979</v>
+        <v>2181514.777309994</v>
       </c>
       <c r="AE5" t="n">
-        <v>2846756.321506078</v>
+        <v>2984844.759955115</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.294552294430131e-06</v>
+        <v>1.895175859343968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.2875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2575065.893629129</v>
+        <v>2699975.36532093</v>
       </c>
     </row>
     <row r="6">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1948.44211265789</v>
+        <v>2049.280603117335</v>
       </c>
       <c r="AB6" t="n">
-        <v>2665.944457737839</v>
+        <v>2803.916129064678</v>
       </c>
       <c r="AC6" t="n">
-        <v>2411.510460367887</v>
+        <v>2536.314309027748</v>
       </c>
       <c r="AD6" t="n">
-        <v>1948442.11265789</v>
+        <v>2049280.603117334</v>
       </c>
       <c r="AE6" t="n">
-        <v>2665944.457737839</v>
+        <v>2803916.129064678</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343599799173637e-06</v>
+        <v>1.966979561172691e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2411510.460367887</v>
+        <v>2536314.309027748</v>
       </c>
     </row>
     <row r="7">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1858.902399382654</v>
+        <v>1959.826141188119</v>
       </c>
       <c r="AB7" t="n">
-        <v>2543.432271821304</v>
+        <v>2681.520587800792</v>
       </c>
       <c r="AC7" t="n">
-        <v>2300.690665528292</v>
+        <v>2425.600026438866</v>
       </c>
       <c r="AD7" t="n">
-        <v>1858902.399382654</v>
+        <v>1959826.141188119</v>
       </c>
       <c r="AE7" t="n">
-        <v>2543432.271821304</v>
+        <v>2681520.587800792</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37680118700001e-06</v>
+        <v>2.015585143949058e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.8375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2300690.665528292</v>
+        <v>2425600.026438866</v>
       </c>
     </row>
     <row r="8">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1800.883844022389</v>
+        <v>1901.636993627262</v>
       </c>
       <c r="AB8" t="n">
-        <v>2464.048724779375</v>
+        <v>2601.903628984015</v>
       </c>
       <c r="AC8" t="n">
-        <v>2228.883372800536</v>
+        <v>2353.58159842846</v>
       </c>
       <c r="AD8" t="n">
-        <v>1800883.844022389</v>
+        <v>1901636.993627262</v>
       </c>
       <c r="AE8" t="n">
-        <v>2464048.724779375</v>
+        <v>2601903.628984015</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.400494904676104e-06</v>
+        <v>2.050271855294011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.45</v>
       </c>
       <c r="AH8" t="n">
-        <v>2228883.372800536</v>
+        <v>2353581.598428459</v>
       </c>
     </row>
     <row r="9">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1756.540291308424</v>
+        <v>1849.046699067437</v>
       </c>
       <c r="AB9" t="n">
-        <v>2403.37591965665</v>
+        <v>2529.947267847213</v>
       </c>
       <c r="AC9" t="n">
-        <v>2174.001095043908</v>
+        <v>2288.492651407165</v>
       </c>
       <c r="AD9" t="n">
-        <v>1756540.291308424</v>
+        <v>1849046.699067437</v>
       </c>
       <c r="AE9" t="n">
-        <v>2403375.91965665</v>
+        <v>2529947.267847213</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.418001090984555e-06</v>
+        <v>2.075900253485185e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.17291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2174001.095043908</v>
+        <v>2288492.651407165</v>
       </c>
     </row>
     <row r="10">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1707.822606159477</v>
+        <v>1808.661007110371</v>
       </c>
       <c r="AB10" t="n">
-        <v>2336.718233563281</v>
+        <v>2474.68978242057</v>
       </c>
       <c r="AC10" t="n">
-        <v>2113.705124956639</v>
+        <v>2238.508862835275</v>
       </c>
       <c r="AD10" t="n">
-        <v>1707822.606159477</v>
+        <v>1808661.007110371</v>
       </c>
       <c r="AE10" t="n">
-        <v>2336718.233563281</v>
+        <v>2474689.78242057</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.432941715506423e-06</v>
+        <v>2.097772765734551e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.94166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2113705.124956639</v>
+        <v>2238508.862835275</v>
       </c>
     </row>
     <row r="11">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1676.602642850647</v>
+        <v>1769.19430195568</v>
       </c>
       <c r="AB11" t="n">
-        <v>2294.001702436565</v>
+        <v>2420.689695279777</v>
       </c>
       <c r="AC11" t="n">
-        <v>2075.06539960763</v>
+        <v>2189.6624682216</v>
       </c>
       <c r="AD11" t="n">
-        <v>1676602.642850647</v>
+        <v>1769194.30195568</v>
       </c>
       <c r="AE11" t="n">
-        <v>2294001.702436565</v>
+        <v>2420689.695279777</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.44395853964881e-06</v>
+        <v>2.113900981837618e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.775</v>
       </c>
       <c r="AH11" t="n">
-        <v>2075065.39960763</v>
+        <v>2189662.4682216</v>
       </c>
     </row>
     <row r="12">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1647.200273829344</v>
+        <v>1739.791932934377</v>
       </c>
       <c r="AB12" t="n">
-        <v>2253.772084000644</v>
+        <v>2380.460076843856</v>
       </c>
       <c r="AC12" t="n">
-        <v>2038.675239492609</v>
+        <v>2153.272308106579</v>
       </c>
       <c r="AD12" t="n">
-        <v>1647200.273829344</v>
+        <v>1739791.932934377</v>
       </c>
       <c r="AE12" t="n">
-        <v>2253772.084000644</v>
+        <v>2380460.076843856</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.453617125198301e-06</v>
+        <v>2.128040787736197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.62916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2038675.239492609</v>
+        <v>2153272.308106579</v>
       </c>
     </row>
     <row r="13">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1622.404353186194</v>
+        <v>1714.996012291227</v>
       </c>
       <c r="AB13" t="n">
-        <v>2219.845211457873</v>
+        <v>2346.533204301084</v>
       </c>
       <c r="AC13" t="n">
-        <v>2007.986300048655</v>
+        <v>2122.583368662625</v>
       </c>
       <c r="AD13" t="n">
-        <v>1622404.353186194</v>
+        <v>1714996.012291227</v>
       </c>
       <c r="AE13" t="n">
-        <v>2219845.211457873</v>
+        <v>2346533.204301084</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46116289515884e-06</v>
+        <v>2.139087511094462e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.51875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2007986.300048655</v>
+        <v>2122583.368662625</v>
       </c>
     </row>
     <row r="14">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1597.080645332411</v>
+        <v>1689.501712236852</v>
       </c>
       <c r="AB14" t="n">
-        <v>2185.196197169184</v>
+        <v>2311.650778237549</v>
       </c>
       <c r="AC14" t="n">
-        <v>1976.644139053482</v>
+        <v>2091.030072384801</v>
       </c>
       <c r="AD14" t="n">
-        <v>1597080.645332411</v>
+        <v>1689501.712236852</v>
       </c>
       <c r="AE14" t="n">
-        <v>2185196.197169184</v>
+        <v>2311650.778237549</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.468255918921747e-06</v>
+        <v>2.149471431051231e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.4125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1976644.139053482</v>
+        <v>2091030.072384801</v>
       </c>
     </row>
     <row r="15">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1573.989164787738</v>
+        <v>1666.410231692179</v>
       </c>
       <c r="AB15" t="n">
-        <v>2153.60141476374</v>
+        <v>2280.055995832104</v>
       </c>
       <c r="AC15" t="n">
-        <v>1948.064718337257</v>
+        <v>2062.450651668576</v>
       </c>
       <c r="AD15" t="n">
-        <v>1573989.164787738</v>
+        <v>1666410.231692179</v>
       </c>
       <c r="AE15" t="n">
-        <v>2153601.41476374</v>
+        <v>2280055.995832104</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.473839788692546e-06</v>
+        <v>2.157646006336348e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1948064.718337257</v>
+        <v>2062450.651668576</v>
       </c>
     </row>
     <row r="16">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1552.271463438256</v>
+        <v>1644.692530342697</v>
       </c>
       <c r="AB16" t="n">
-        <v>2123.886297660015</v>
+        <v>2250.340878728379</v>
       </c>
       <c r="AC16" t="n">
-        <v>1921.185570304483</v>
+        <v>2035.571503635802</v>
       </c>
       <c r="AD16" t="n">
-        <v>1552271.463438256</v>
+        <v>1644692.530342697</v>
       </c>
       <c r="AE16" t="n">
-        <v>2123886.297660015</v>
+        <v>2250340.878728379</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.478970912265713e-06</v>
+        <v>2.165157778219968e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.25833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1921185.570304483</v>
+        <v>2035571.503635802</v>
       </c>
     </row>
     <row r="17">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1532.171296311108</v>
+        <v>1624.59236321555</v>
       </c>
       <c r="AB17" t="n">
-        <v>2096.384362239863</v>
+        <v>2222.838943308227</v>
       </c>
       <c r="AC17" t="n">
-        <v>1896.308381001621</v>
+        <v>2010.694314332941</v>
       </c>
       <c r="AD17" t="n">
-        <v>1532171.296311108</v>
+        <v>1624592.36321555</v>
       </c>
       <c r="AE17" t="n">
-        <v>2096384.362239863</v>
+        <v>2222838.943308227</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.483498374242037e-06</v>
+        <v>2.171785812234927e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.19375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1896308.381001621</v>
+        <v>2010694.314332941</v>
       </c>
     </row>
     <row r="18">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1513.863892695394</v>
+        <v>1606.284959599835</v>
       </c>
       <c r="AB18" t="n">
-        <v>2071.335364947196</v>
+        <v>2197.789946015561</v>
       </c>
       <c r="AC18" t="n">
-        <v>1873.650024854079</v>
+        <v>1988.035958185397</v>
       </c>
       <c r="AD18" t="n">
-        <v>1513863.892695394</v>
+        <v>1606284.959599835</v>
       </c>
       <c r="AE18" t="n">
-        <v>2071335.364947196</v>
+        <v>2197789.946015561</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.487271259222306e-06</v>
+        <v>2.17730917391406e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.13958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1873650.024854079</v>
+        <v>1988035.958185398</v>
       </c>
     </row>
     <row r="19">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1514.785445360752</v>
+        <v>1607.206512265193</v>
       </c>
       <c r="AB19" t="n">
-        <v>2072.596273959974</v>
+        <v>2199.050855028339</v>
       </c>
       <c r="AC19" t="n">
-        <v>1874.790594480374</v>
+        <v>1989.176527811693</v>
       </c>
       <c r="AD19" t="n">
-        <v>1514785.445360753</v>
+        <v>1607206.512265194</v>
       </c>
       <c r="AE19" t="n">
-        <v>2072596.273959974</v>
+        <v>2199050.855028339</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.487724005419939e-06</v>
+        <v>2.177971977315555e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.13333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1874790.594480374</v>
+        <v>1989176.527811693</v>
       </c>
     </row>
     <row r="20">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1520.991889823613</v>
+        <v>1613.412956728054</v>
       </c>
       <c r="AB20" t="n">
-        <v>2081.088205083065</v>
+        <v>2207.542786151429</v>
       </c>
       <c r="AC20" t="n">
-        <v>1882.472067615577</v>
+        <v>1996.858000946896</v>
       </c>
       <c r="AD20" t="n">
-        <v>1520991.889823613</v>
+        <v>1613412.956728054</v>
       </c>
       <c r="AE20" t="n">
-        <v>2081088.205083065</v>
+        <v>2207542.78615143</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.487874920819149e-06</v>
+        <v>2.178192911782721e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.13125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1882472.067615577</v>
+        <v>1996858.000946896</v>
       </c>
     </row>
   </sheetData>
@@ -11754,28 +11754,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2179.932257136079</v>
+        <v>2304.123536029348</v>
       </c>
       <c r="AB2" t="n">
-        <v>2982.679486037301</v>
+        <v>3152.603472751793</v>
       </c>
       <c r="AC2" t="n">
-        <v>2698.016742106851</v>
+        <v>2851.723422019007</v>
       </c>
       <c r="AD2" t="n">
-        <v>2179932.257136079</v>
+        <v>2304123.536029348</v>
       </c>
       <c r="AE2" t="n">
-        <v>2982679.486037301</v>
+        <v>3152603.472751793</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147643277529564e-06</v>
+        <v>1.775545807293449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.56875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2698016.742106851</v>
+        <v>2851723.422019007</v>
       </c>
     </row>
     <row r="3">
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1453.863631692309</v>
+        <v>1546.985845157167</v>
       </c>
       <c r="AB3" t="n">
-        <v>1989.240360818078</v>
+        <v>2116.654281542808</v>
       </c>
       <c r="AC3" t="n">
-        <v>1799.390052697981</v>
+        <v>1914.643767655303</v>
       </c>
       <c r="AD3" t="n">
-        <v>1453863.631692309</v>
+        <v>1546985.845157167</v>
       </c>
       <c r="AE3" t="n">
-        <v>1989240.360818078</v>
+        <v>2116654.281542808</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.440490182830212e-06</v>
+        <v>2.228616116740742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1799390.052697981</v>
+        <v>1914643.767655303</v>
       </c>
     </row>
     <row r="4">
@@ -11966,28 +11966,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1268.480668166476</v>
+        <v>1361.602792122782</v>
       </c>
       <c r="AB4" t="n">
-        <v>1735.591211602894</v>
+        <v>1863.005009858075</v>
       </c>
       <c r="AC4" t="n">
-        <v>1569.948822285077</v>
+        <v>1685.202426461173</v>
       </c>
       <c r="AD4" t="n">
-        <v>1268480.668166476</v>
+        <v>1361602.792122782</v>
       </c>
       <c r="AE4" t="n">
-        <v>1735591.211602893</v>
+        <v>1863005.009858075</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540014346736297e-06</v>
+        <v>2.382592282861128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1569948.822285077</v>
+        <v>1685202.426461173</v>
       </c>
     </row>
     <row r="5">
@@ -12072,28 +12072,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1176.249354049162</v>
+        <v>1261.60427877978</v>
       </c>
       <c r="AB5" t="n">
-        <v>1609.396258669179</v>
+        <v>1726.182632279127</v>
       </c>
       <c r="AC5" t="n">
-        <v>1455.797738543628</v>
+        <v>1561.438184566947</v>
       </c>
       <c r="AD5" t="n">
-        <v>1176249.354049162</v>
+        <v>1261604.27877978</v>
       </c>
       <c r="AE5" t="n">
-        <v>1609396.258669179</v>
+        <v>1726182.632279127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>2.462055448117841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.04583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1455797.738543628</v>
+        <v>1561438.184566947</v>
       </c>
     </row>
     <row r="6">
@@ -12178,28 +12178,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1108.945977651493</v>
+        <v>1194.386153728132</v>
       </c>
       <c r="AB6" t="n">
-        <v>1517.308809866478</v>
+        <v>1634.211828129076</v>
       </c>
       <c r="AC6" t="n">
-        <v>1372.49898660911</v>
+        <v>1478.244944883142</v>
       </c>
       <c r="AD6" t="n">
-        <v>1108945.977651493</v>
+        <v>1194386.153728132</v>
       </c>
       <c r="AE6" t="n">
-        <v>1517308.809866478</v>
+        <v>1634211.828129076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.620172556582823e-06</v>
+        <v>2.506606927655212e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.65416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1372498.98660911</v>
+        <v>1478244.944883142</v>
       </c>
     </row>
     <row r="7">
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1112.401527906904</v>
+        <v>1197.841703983542</v>
       </c>
       <c r="AB7" t="n">
-        <v>1522.03684617405</v>
+        <v>1638.939864436647</v>
       </c>
       <c r="AC7" t="n">
-        <v>1376.775785767328</v>
+        <v>1482.521744041359</v>
       </c>
       <c r="AD7" t="n">
-        <v>1112401.527906904</v>
+        <v>1197841.703983543</v>
       </c>
       <c r="AE7" t="n">
-        <v>1522036.846174049</v>
+        <v>1638939.864436647</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.621519753386966e-06</v>
+        <v>2.50869120739965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1376775.785767328</v>
+        <v>1482521.744041359</v>
       </c>
     </row>
   </sheetData>
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3245.619976327835</v>
+        <v>3389.835763338645</v>
       </c>
       <c r="AB2" t="n">
-        <v>4440.800438259746</v>
+        <v>4638.122840399439</v>
       </c>
       <c r="AC2" t="n">
-        <v>4016.976677134629</v>
+        <v>4195.466906157832</v>
       </c>
       <c r="AD2" t="n">
-        <v>3245619.976327835</v>
+        <v>3389835.763338645</v>
       </c>
       <c r="AE2" t="n">
-        <v>4440800.438259747</v>
+        <v>4638122.840399439</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.496995563920913e-07</v>
+        <v>1.435275211404969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4016976.677134629</v>
+        <v>4195466.906157833</v>
       </c>
     </row>
     <row r="3">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1901.91317145378</v>
+        <v>2014.04300690906</v>
       </c>
       <c r="AB3" t="n">
-        <v>2602.281507670363</v>
+        <v>2755.70249535949</v>
       </c>
       <c r="AC3" t="n">
-        <v>2353.923412903337</v>
+        <v>2492.702116855123</v>
       </c>
       <c r="AD3" t="n">
-        <v>1901913.17145378</v>
+        <v>2014043.00690906</v>
       </c>
       <c r="AE3" t="n">
-        <v>2602281.507670363</v>
+        <v>2755702.49535949</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.29139807362833e-06</v>
+        <v>1.951682119528792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2353923.412903337</v>
+        <v>2492702.116855123</v>
       </c>
     </row>
     <row r="4">
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1622.843318894207</v>
+        <v>1726.951688837744</v>
       </c>
       <c r="AB4" t="n">
-        <v>2220.445823705376</v>
+        <v>2362.891488399252</v>
       </c>
       <c r="AC4" t="n">
-        <v>2008.529590706222</v>
+        <v>2137.380441085459</v>
       </c>
       <c r="AD4" t="n">
-        <v>1622843.318894207</v>
+        <v>1726951.688837744</v>
       </c>
       <c r="AE4" t="n">
-        <v>2220445.823705377</v>
+        <v>2362891.488399251</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411741681537556e-06</v>
+        <v>2.133556688302247e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>2008529.590706222</v>
+        <v>2137380.441085459</v>
       </c>
     </row>
     <row r="5">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1493.136370445535</v>
+        <v>1589.308615731898</v>
       </c>
       <c r="AB5" t="n">
-        <v>2042.975054571195</v>
+        <v>2174.562163392016</v>
       </c>
       <c r="AC5" t="n">
-        <v>1847.996382696417</v>
+        <v>1967.025002535047</v>
       </c>
       <c r="AD5" t="n">
-        <v>1493136.370445535</v>
+        <v>1589308.615731898</v>
       </c>
       <c r="AE5" t="n">
-        <v>2042975.054571195</v>
+        <v>2174562.163392016</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.47296065209379e-06</v>
+        <v>2.226076549257953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.78541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1847996.382696417</v>
+        <v>1967025.002535047</v>
       </c>
     </row>
     <row r="6">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1417.96115380158</v>
+        <v>1506.11202308475</v>
       </c>
       <c r="AB6" t="n">
-        <v>1940.117006662444</v>
+        <v>2060.728914957562</v>
       </c>
       <c r="AC6" t="n">
-        <v>1754.9549625179</v>
+        <v>1864.055839565209</v>
       </c>
       <c r="AD6" t="n">
-        <v>1417961.15380158</v>
+        <v>1506112.023084749</v>
       </c>
       <c r="AE6" t="n">
-        <v>1940117.006662444</v>
+        <v>2060728.914957562</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.509530931873435e-06</v>
+        <v>2.281344992513072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.23541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1754954.9625179</v>
+        <v>1864055.839565209</v>
       </c>
     </row>
     <row r="7">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1353.160364853935</v>
+        <v>1449.247269285727</v>
       </c>
       <c r="AB7" t="n">
-        <v>1851.453708415233</v>
+        <v>1982.924050113857</v>
       </c>
       <c r="AC7" t="n">
-        <v>1674.753565015683</v>
+        <v>1793.676561822373</v>
       </c>
       <c r="AD7" t="n">
-        <v>1353160.364853935</v>
+        <v>1449247.269285727</v>
       </c>
       <c r="AE7" t="n">
-        <v>1851453.708415233</v>
+        <v>1982924.050113857</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535146237974595e-06</v>
+        <v>2.320057250123486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.8625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1674753.565015683</v>
+        <v>1793676.561822373</v>
       </c>
     </row>
     <row r="8">
@@ -13217,28 +13217,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1306.133265408896</v>
+        <v>1394.369386038087</v>
       </c>
       <c r="AB8" t="n">
-        <v>1787.109156265327</v>
+        <v>1907.837709213095</v>
       </c>
       <c r="AC8" t="n">
-        <v>1616.549966614818</v>
+        <v>1725.756355912838</v>
       </c>
       <c r="AD8" t="n">
-        <v>1306133.265408896</v>
+        <v>1394369.386038087</v>
       </c>
       <c r="AE8" t="n">
-        <v>1787109.156265327</v>
+        <v>1907837.709213095</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.553834134249656e-06</v>
+        <v>2.348300155046807e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>1616549.966614818</v>
+        <v>1725756.355912838</v>
       </c>
     </row>
     <row r="9">
@@ -13323,28 +13323,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1265.716108189426</v>
+        <v>1353.781636618025</v>
       </c>
       <c r="AB9" t="n">
-        <v>1731.808618678515</v>
+        <v>1852.303759851436</v>
       </c>
       <c r="AC9" t="n">
-        <v>1566.527234720499</v>
+        <v>1675.522488735869</v>
       </c>
       <c r="AD9" t="n">
-        <v>1265716.108189426</v>
+        <v>1353781.636618024</v>
       </c>
       <c r="AE9" t="n">
-        <v>1731808.618678515</v>
+        <v>1852303.759851436</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568011159010047e-06</v>
+        <v>2.369725807057602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.40416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1566527.234720499</v>
+        <v>1675522.488735869</v>
       </c>
     </row>
     <row r="10">
@@ -13429,28 +13429,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1256.452931384901</v>
+        <v>1344.518459813499</v>
       </c>
       <c r="AB10" t="n">
-        <v>1719.134331512045</v>
+        <v>1839.629472684966</v>
       </c>
       <c r="AC10" t="n">
-        <v>1555.062563732723</v>
+        <v>1664.057817748093</v>
       </c>
       <c r="AD10" t="n">
-        <v>1256452.931384901</v>
+        <v>1344518.459813499</v>
       </c>
       <c r="AE10" t="n">
-        <v>1719134.331512045</v>
+        <v>1839629.472684966</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>2.374351800105387e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.36458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1555062.563732723</v>
+        <v>1664057.817748093</v>
       </c>
     </row>
     <row r="11">
@@ -13535,28 +13535,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1263.201568177834</v>
+        <v>1351.267096606432</v>
       </c>
       <c r="AB11" t="n">
-        <v>1728.36811410098</v>
+        <v>1848.8632552739</v>
       </c>
       <c r="AC11" t="n">
-        <v>1563.415087071065</v>
+        <v>1672.410341086434</v>
       </c>
       <c r="AD11" t="n">
-        <v>1263201.568177834</v>
+        <v>1351267.096606432</v>
       </c>
       <c r="AE11" t="n">
-        <v>1728368.11410098</v>
+        <v>1848863.2552739</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571072107537858e-06</v>
+        <v>2.374351800105387e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.3625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1563415.087071065</v>
+        <v>1672410.341086434</v>
       </c>
     </row>
   </sheetData>
@@ -13832,28 +13832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1572.696954325312</v>
+        <v>1678.520317245288</v>
       </c>
       <c r="AB2" t="n">
-        <v>2151.833355400746</v>
+        <v>2296.625549145137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1946.465400078381</v>
+        <v>2077.438830068927</v>
       </c>
       <c r="AD2" t="n">
-        <v>1572696.954325312</v>
+        <v>1678520.317245288</v>
       </c>
       <c r="AE2" t="n">
-        <v>2151833.355400746</v>
+        <v>2296625.549145136</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319249237881258e-06</v>
+        <v>2.085057576739865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.61875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1946465.400078381</v>
+        <v>2077438.830068927</v>
       </c>
     </row>
     <row r="3">
@@ -13938,28 +13938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1135.463761286875</v>
+        <v>1225.998908731977</v>
       </c>
       <c r="AB3" t="n">
-        <v>1553.591611318455</v>
+        <v>1677.465794181657</v>
       </c>
       <c r="AC3" t="n">
-        <v>1405.319008413742</v>
+        <v>1517.370813122988</v>
       </c>
       <c r="AD3" t="n">
-        <v>1135463.761286875</v>
+        <v>1225998.908731977</v>
       </c>
       <c r="AE3" t="n">
-        <v>1553591.611318455</v>
+        <v>1677465.794181657</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.567778094706031e-06</v>
+        <v>2.477854450204978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1405319.008413742</v>
+        <v>1517370.813122988</v>
       </c>
     </row>
     <row r="4">
@@ -14044,28 +14044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1002.133803529646</v>
+        <v>1085.195480192178</v>
       </c>
       <c r="AB4" t="n">
-        <v>1371.163681012416</v>
+        <v>1484.812331444644</v>
       </c>
       <c r="AC4" t="n">
-        <v>1240.301743736903</v>
+        <v>1343.103926478763</v>
       </c>
       <c r="AD4" t="n">
-        <v>1002133.803529646</v>
+        <v>1085195.480192178</v>
       </c>
       <c r="AE4" t="n">
-        <v>1371163.681012416</v>
+        <v>1484812.331444644</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.650679346032521e-06</v>
+        <v>2.608878882310864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1240301.743736903</v>
+        <v>1343103.926478763</v>
       </c>
     </row>
     <row r="5">
@@ -14150,28 +14150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1005.238051403782</v>
+        <v>1088.299728066314</v>
       </c>
       <c r="AB5" t="n">
-        <v>1375.41104990356</v>
+        <v>1489.059700335788</v>
       </c>
       <c r="AC5" t="n">
-        <v>1244.143749702296</v>
+        <v>1346.945932444155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1005238.051403782</v>
+        <v>1088299.728066314</v>
       </c>
       <c r="AE5" t="n">
-        <v>1375411.04990356</v>
+        <v>1489059.700335788</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.653127906198283e-06</v>
+        <v>2.612748802246481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.03958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1244143.749702296</v>
+        <v>1346945.932444155</v>
       </c>
     </row>
   </sheetData>
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7444.391129510902</v>
+        <v>7664.634537619779</v>
       </c>
       <c r="AB2" t="n">
-        <v>10185.74436675507</v>
+        <v>10487.09111418307</v>
       </c>
       <c r="AC2" t="n">
-        <v>9213.631220173589</v>
+        <v>9486.217856969864</v>
       </c>
       <c r="AD2" t="n">
-        <v>7444391.129510902</v>
+        <v>7664634.537619779</v>
       </c>
       <c r="AE2" t="n">
-        <v>10185744.36675507</v>
+        <v>10487091.11418307</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.131949217319512e-07</v>
+        <v>8.939684688213214e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.81458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9213631.22017359</v>
+        <v>9486217.856969865</v>
       </c>
     </row>
     <row r="3">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3052.952521783717</v>
+        <v>3179.980010224301</v>
       </c>
       <c r="AB3" t="n">
-        <v>4177.184327064268</v>
+        <v>4350.988940805961</v>
       </c>
       <c r="AC3" t="n">
-        <v>3778.51971760412</v>
+        <v>3935.736662946607</v>
       </c>
       <c r="AD3" t="n">
-        <v>3052952.521783717</v>
+        <v>3179980.010224301</v>
       </c>
       <c r="AE3" t="n">
-        <v>4177184.327064267</v>
+        <v>4350988.94080596</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034504700882904e-06</v>
+        <v>1.508190219228556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.11875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3778519.71760412</v>
+        <v>3935736.662946607</v>
       </c>
     </row>
     <row r="4">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2431.247024391149</v>
+        <v>2541.326147526854</v>
       </c>
       <c r="AB4" t="n">
-        <v>3326.539437820913</v>
+        <v>3477.154550443361</v>
       </c>
       <c r="AC4" t="n">
-        <v>3009.059182702583</v>
+        <v>3145.299800365977</v>
       </c>
       <c r="AD4" t="n">
-        <v>2431247.024391149</v>
+        <v>2541326.147526854</v>
       </c>
       <c r="AE4" t="n">
-        <v>3326539.437820912</v>
+        <v>3477154.550443361</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188102550789908e-06</v>
+        <v>1.732118418613799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.22708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3009059.182702583</v>
+        <v>3145299.800365977</v>
       </c>
     </row>
     <row r="5">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2176.40258265813</v>
+        <v>2286.481616285285</v>
       </c>
       <c r="AB5" t="n">
-        <v>2977.850029698322</v>
+        <v>3128.465019851396</v>
       </c>
       <c r="AC5" t="n">
-        <v>2693.648202302681</v>
+        <v>2829.888709184893</v>
       </c>
       <c r="AD5" t="n">
-        <v>2176402.58265813</v>
+        <v>2286481.616285285</v>
       </c>
       <c r="AE5" t="n">
-        <v>2977850.029698323</v>
+        <v>3128465.019851396</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.268864808774116e-06</v>
+        <v>1.849860607190266e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.55416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2693648.202302681</v>
+        <v>2829888.709184893</v>
       </c>
     </row>
     <row r="6">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2034.564091437044</v>
+        <v>2136.254283266328</v>
       </c>
       <c r="AB6" t="n">
-        <v>2783.78034853703</v>
+        <v>2922.917355252496</v>
       </c>
       <c r="AC6" t="n">
-        <v>2518.100259132914</v>
+        <v>2643.95822520747</v>
       </c>
       <c r="AD6" t="n">
-        <v>2034564.091437044</v>
+        <v>2136254.283266327</v>
       </c>
       <c r="AE6" t="n">
-        <v>2783780.34853703</v>
+        <v>2922917.355252496</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319565559619758e-06</v>
+        <v>1.923776536685492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2518100.259132914</v>
+        <v>2643958.22520747</v>
       </c>
     </row>
     <row r="7">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1948.274848437743</v>
+        <v>2041.490947123138</v>
       </c>
       <c r="AB7" t="n">
-        <v>2665.715599452658</v>
+        <v>2793.25797807805</v>
       </c>
       <c r="AC7" t="n">
-        <v>2411.303443996238</v>
+        <v>2526.673357012475</v>
       </c>
       <c r="AD7" t="n">
-        <v>1948274.848437743</v>
+        <v>2041490.947123138</v>
       </c>
       <c r="AE7" t="n">
-        <v>2665715.599452658</v>
+        <v>2793257.97807805</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.353665179657535e-06</v>
+        <v>1.973489905195556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.01875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2411303.443996238</v>
+        <v>2526673.357012475</v>
       </c>
     </row>
     <row r="8">
@@ -15083,28 +15083,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1877.228262181167</v>
+        <v>1978.833113155879</v>
       </c>
       <c r="AB8" t="n">
-        <v>2568.506525782236</v>
+        <v>2707.526765375504</v>
       </c>
       <c r="AC8" t="n">
-        <v>2323.371867883129</v>
+        <v>2449.124210925748</v>
       </c>
       <c r="AD8" t="n">
-        <v>1877228.262181167</v>
+        <v>1978833.113155879</v>
       </c>
       <c r="AE8" t="n">
-        <v>2568506.525782236</v>
+        <v>2707526.765375504</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.378641655737836e-06</v>
+        <v>2.009902767218278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.60208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2323371.867883129</v>
+        <v>2449124.210925748</v>
       </c>
     </row>
     <row r="9">
@@ -15189,28 +15189,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1830.168838716269</v>
+        <v>1923.299596547092</v>
       </c>
       <c r="AB9" t="n">
-        <v>2504.117746482325</v>
+        <v>2631.543357985519</v>
       </c>
       <c r="AC9" t="n">
-        <v>2265.128263309382</v>
+        <v>2380.39255329368</v>
       </c>
       <c r="AD9" t="n">
-        <v>1830168.838716269</v>
+        <v>1923299.596547092</v>
       </c>
       <c r="AE9" t="n">
-        <v>2504117.746482325</v>
+        <v>2631543.357985519</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397037503389795e-06</v>
+        <v>2.036721821282918e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.30208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2265128.263309381</v>
+        <v>2380392.55329368</v>
       </c>
     </row>
     <row r="10">
@@ -15295,28 +15295,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1791.017424210267</v>
+        <v>1884.14818204109</v>
       </c>
       <c r="AB10" t="n">
-        <v>2450.549053916707</v>
+        <v>2577.974665419902</v>
       </c>
       <c r="AC10" t="n">
-        <v>2216.672091578094</v>
+        <v>2331.936381562393</v>
       </c>
       <c r="AD10" t="n">
-        <v>1791017.424210267</v>
+        <v>1884148.18204109</v>
       </c>
       <c r="AE10" t="n">
-        <v>2450549.053916707</v>
+        <v>2577974.665419902</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41154479787955e-06</v>
+        <v>2.05787180700869e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.07291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2216672.091578094</v>
+        <v>2331936.381562393</v>
       </c>
     </row>
     <row r="11">
@@ -15401,28 +15401,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1748.830553543676</v>
+        <v>1850.350063663817</v>
       </c>
       <c r="AB11" t="n">
-        <v>2392.827116317297</v>
+        <v>2531.730588788367</v>
       </c>
       <c r="AC11" t="n">
-        <v>2164.459054689924</v>
+        <v>2290.105774700603</v>
       </c>
       <c r="AD11" t="n">
-        <v>1748830.553543676</v>
+        <v>1850350.063663817</v>
       </c>
       <c r="AE11" t="n">
-        <v>2392827.116317297</v>
+        <v>2531730.588788367</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.423958256051197e-06</v>
+        <v>2.075969217475073e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.88125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2164459.054689924</v>
+        <v>2290105.774700603</v>
       </c>
     </row>
     <row r="12">
@@ -15507,28 +15507,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1719.330953948591</v>
+        <v>1812.546963125435</v>
       </c>
       <c r="AB12" t="n">
-        <v>2352.464462720819</v>
+        <v>2480.006718876662</v>
       </c>
       <c r="AC12" t="n">
-        <v>2127.948556103353</v>
+        <v>2243.318358338363</v>
       </c>
       <c r="AD12" t="n">
-        <v>1719330.953948591</v>
+        <v>1812546.963125435</v>
       </c>
       <c r="AE12" t="n">
-        <v>2352464.462720818</v>
+        <v>2480006.718876662</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.433679638956704e-06</v>
+        <v>2.090141888322241e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.73333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2127948.556103353</v>
+        <v>2243318.358338363</v>
       </c>
     </row>
     <row r="13">
@@ -15613,28 +15613,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1691.515841838109</v>
+        <v>1784.731851014952</v>
       </c>
       <c r="AB13" t="n">
-        <v>2314.406599215115</v>
+        <v>2441.948855370959</v>
       </c>
       <c r="AC13" t="n">
-        <v>2093.522881676087</v>
+        <v>2208.892683911098</v>
       </c>
       <c r="AD13" t="n">
-        <v>1691515.841838109</v>
+        <v>1784731.851014952</v>
       </c>
       <c r="AE13" t="n">
-        <v>2314406.599215115</v>
+        <v>2441948.855370959</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442653223177171e-06</v>
+        <v>2.103224353719626e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.59791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2093522.881676087</v>
+        <v>2208892.683911098</v>
       </c>
     </row>
     <row r="14">
@@ -15719,28 +15719,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1668.928166277472</v>
+        <v>1761.973583253723</v>
       </c>
       <c r="AB14" t="n">
-        <v>2283.501145015136</v>
+        <v>2410.809989396133</v>
       </c>
       <c r="AC14" t="n">
-        <v>2065.567000648876</v>
+        <v>2180.725667601236</v>
       </c>
       <c r="AD14" t="n">
-        <v>1668928.166277472</v>
+        <v>1761973.583253723</v>
       </c>
       <c r="AE14" t="n">
-        <v>2283501.145015135</v>
+        <v>2410809.989396133</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.449233851605514e-06</v>
+        <v>2.112818161677708e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>2065567.000648876</v>
+        <v>2180725.667601236</v>
       </c>
     </row>
     <row r="15">
@@ -15825,28 +15825,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1646.902326750879</v>
+        <v>1739.94774372713</v>
       </c>
       <c r="AB15" t="n">
-        <v>2253.364419663391</v>
+        <v>2380.673264044388</v>
       </c>
       <c r="AC15" t="n">
-        <v>2038.306482067543</v>
+        <v>2153.465149019903</v>
       </c>
       <c r="AD15" t="n">
-        <v>1646902.326750879</v>
+        <v>1739947.74372713</v>
       </c>
       <c r="AE15" t="n">
-        <v>2253364.419663392</v>
+        <v>2380673.264044388</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45491712161181e-06</v>
+        <v>2.121103723096052e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.41458333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2038306.482067543</v>
+        <v>2153465.149019903</v>
       </c>
     </row>
     <row r="16">
@@ -15931,28 +15931,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1624.285817915032</v>
+        <v>1717.331234891283</v>
       </c>
       <c r="AB16" t="n">
-        <v>2222.419514504235</v>
+        <v>2349.728358885232</v>
       </c>
       <c r="AC16" t="n">
-        <v>2010.314915225329</v>
+        <v>2125.473582177689</v>
       </c>
       <c r="AD16" t="n">
-        <v>1624285.817915032</v>
+        <v>1717331.234891283</v>
       </c>
       <c r="AE16" t="n">
-        <v>2222419.514504235</v>
+        <v>2349728.358885231</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.460749951355114e-06</v>
+        <v>2.129607325604353e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.33125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2010314.915225329</v>
+        <v>2125473.582177689</v>
       </c>
     </row>
     <row r="17">
@@ -16037,28 +16037,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1606.350715725396</v>
+        <v>1699.396132701647</v>
       </c>
       <c r="AB17" t="n">
-        <v>2197.879916447509</v>
+        <v>2325.188760828505</v>
       </c>
       <c r="AC17" t="n">
-        <v>1988.117341965595</v>
+        <v>2103.276008917954</v>
       </c>
       <c r="AD17" t="n">
-        <v>1606350.715725396</v>
+        <v>1699396.132701647</v>
       </c>
       <c r="AE17" t="n">
-        <v>2197879.916447509</v>
+        <v>2325188.760828505</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.464937623991333e-06</v>
+        <v>2.135712476123132e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.26875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1988117.341965595</v>
+        <v>2103276.008917954</v>
       </c>
     </row>
     <row r="18">
@@ -16143,28 +16143,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1582.795545023279</v>
+        <v>1675.84096199953</v>
       </c>
       <c r="AB18" t="n">
-        <v>2165.650692712083</v>
+        <v>2292.95953709308</v>
       </c>
       <c r="AC18" t="n">
-        <v>1958.964030109479</v>
+        <v>2074.122697061838</v>
       </c>
       <c r="AD18" t="n">
-        <v>1582795.545023279</v>
+        <v>1675840.96199953</v>
       </c>
       <c r="AE18" t="n">
-        <v>2165650.692712083</v>
+        <v>2292959.53709308</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.469723535575582e-06</v>
+        <v>2.142689791001738e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="AH18" t="n">
-        <v>1958964.030109479</v>
+        <v>2074122.697061838</v>
       </c>
     </row>
     <row r="19">
@@ -16249,28 +16249,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1565.603035757301</v>
+        <v>1658.648452733552</v>
       </c>
       <c r="AB19" t="n">
-        <v>2142.127143054393</v>
+        <v>2269.43598743539</v>
       </c>
       <c r="AC19" t="n">
-        <v>1937.68553501561</v>
+        <v>2052.844201967969</v>
       </c>
       <c r="AD19" t="n">
-        <v>1565603.035757301</v>
+        <v>1658648.452733552</v>
       </c>
       <c r="AE19" t="n">
-        <v>2142127.143054393</v>
+        <v>2269435.98743539</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.473312969263769e-06</v>
+        <v>2.147922777160692e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.14791666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1937685.53501561</v>
+        <v>2052844.201967969</v>
       </c>
     </row>
     <row r="20">
@@ -16355,28 +16355,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1555.755331772698</v>
+        <v>1648.800748748949</v>
       </c>
       <c r="AB20" t="n">
-        <v>2128.653080012623</v>
+        <v>2255.961924393619</v>
       </c>
       <c r="AC20" t="n">
-        <v>1925.497417639579</v>
+        <v>2040.656084591938</v>
       </c>
       <c r="AD20" t="n">
-        <v>1555755.331772698</v>
+        <v>1648800.748748949</v>
       </c>
       <c r="AE20" t="n">
-        <v>2128653.080012623</v>
+        <v>2255961.924393619</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.474958126370855e-06</v>
+        <v>2.150321229150213e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1925497.417639579</v>
+        <v>2040656.084591938</v>
       </c>
     </row>
     <row r="21">
@@ -16461,28 +16461,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1561.968341752488</v>
+        <v>1655.013758728739</v>
       </c>
       <c r="AB21" t="n">
-        <v>2137.153994365626</v>
+        <v>2264.462838746622</v>
       </c>
       <c r="AC21" t="n">
-        <v>1933.187016657839</v>
+        <v>2048.345683610199</v>
       </c>
       <c r="AD21" t="n">
-        <v>1561968.341752487</v>
+        <v>1655013.758728739</v>
       </c>
       <c r="AE21" t="n">
-        <v>2137153.994365626</v>
+        <v>2264462.838746622</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.149667105880343e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.13125</v>
       </c>
       <c r="AH21" t="n">
-        <v>1933187.01665784</v>
+        <v>2048345.683610199</v>
       </c>
     </row>
     <row r="22">
@@ -16567,28 +16567,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1568.362463675568</v>
+        <v>1661.407880651819</v>
       </c>
       <c r="AB22" t="n">
-        <v>2145.902714069534</v>
+        <v>2273.211558450531</v>
       </c>
       <c r="AC22" t="n">
-        <v>1941.100770832113</v>
+        <v>2056.259437784472</v>
       </c>
       <c r="AD22" t="n">
-        <v>1568362.463675568</v>
+        <v>1661407.880651819</v>
       </c>
       <c r="AE22" t="n">
-        <v>2145902.714069534</v>
+        <v>2273211.558450531</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.474509447159831e-06</v>
+        <v>2.149667105880343e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.13333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1941100.770832113</v>
+        <v>2056259.437784472</v>
       </c>
     </row>
   </sheetData>
@@ -16864,28 +16864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.515966749079</v>
+        <v>1380.090421156628</v>
       </c>
       <c r="AB2" t="n">
-        <v>1756.16317043417</v>
+        <v>1888.300599518811</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.557422238423</v>
+        <v>1708.083840547272</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283515.966749079</v>
+        <v>1380090.421156628</v>
       </c>
       <c r="AE2" t="n">
-        <v>1756163.17043417</v>
+        <v>1888300.599518811</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.427596852621546e-06</v>
+        <v>2.287345497085478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.12083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588557.422238423</v>
+        <v>1708083.840547272</v>
       </c>
     </row>
     <row r="3">
@@ -16970,28 +16970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>951.2243625792917</v>
+        <v>1040.363365497245</v>
       </c>
       <c r="AB3" t="n">
-        <v>1301.50713793812</v>
+        <v>1423.471054265728</v>
       </c>
       <c r="AC3" t="n">
-        <v>1177.293123370045</v>
+        <v>1287.616974700779</v>
       </c>
       <c r="AD3" t="n">
-        <v>951224.3625792917</v>
+        <v>1040363.365497246</v>
       </c>
       <c r="AE3" t="n">
-        <v>1301507.137938119</v>
+        <v>1423471.054265728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648824248539329e-06</v>
+        <v>2.64180375114737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1177293.123370045</v>
+        <v>1287616.974700779</v>
       </c>
     </row>
     <row r="4">
@@ -17076,28 +17076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>935.6703990839886</v>
+        <v>1017.37412952945</v>
       </c>
       <c r="AB4" t="n">
-        <v>1280.225518891405</v>
+        <v>1392.016167401079</v>
       </c>
       <c r="AC4" t="n">
-        <v>1158.042592176209</v>
+        <v>1259.16409809128</v>
       </c>
       <c r="AD4" t="n">
-        <v>935670.3990839886</v>
+        <v>1017374.12952945</v>
       </c>
       <c r="AE4" t="n">
-        <v>1280225.518891405</v>
+        <v>1392016.167401079</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.665291012636769e-06</v>
+        <v>2.668187375236119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.39166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1158042.592176209</v>
+        <v>1259164.09809128</v>
       </c>
     </row>
   </sheetData>
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4648.595148650756</v>
+        <v>4821.322025711595</v>
       </c>
       <c r="AB2" t="n">
-        <v>6360.412963928356</v>
+        <v>6596.74549729502</v>
       </c>
       <c r="AC2" t="n">
-        <v>5753.384077546455</v>
+        <v>5967.161365623389</v>
       </c>
       <c r="AD2" t="n">
-        <v>4648595.148650755</v>
+        <v>4821322.025711594</v>
       </c>
       <c r="AE2" t="n">
-        <v>6360412.963928356</v>
+        <v>6596745.49729502</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.898872984668539e-07</v>
+        <v>1.172858781627485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.00625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5753384.077546455</v>
+        <v>5967161.365623389</v>
       </c>
     </row>
     <row r="3">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2366.369032234811</v>
+        <v>2481.634011742432</v>
       </c>
       <c r="AB3" t="n">
-        <v>3237.770506737597</v>
+        <v>3395.481136831939</v>
       </c>
       <c r="AC3" t="n">
-        <v>2928.762233813886</v>
+        <v>3071.421182720276</v>
       </c>
       <c r="AD3" t="n">
-        <v>2366369.032234811</v>
+        <v>2481634.011742433</v>
       </c>
       <c r="AE3" t="n">
-        <v>3237770.506737597</v>
+        <v>3395481.136831939</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17083688138886e-06</v>
+        <v>1.738509178278536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.66458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2928762.233813886</v>
+        <v>3071421.182720276</v>
       </c>
     </row>
     <row r="4">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1961.973135466264</v>
+        <v>2068.919561297341</v>
       </c>
       <c r="AB4" t="n">
-        <v>2684.458200090854</v>
+        <v>2830.78701805625</v>
       </c>
       <c r="AC4" t="n">
-        <v>2428.257277134929</v>
+        <v>2560.620678087494</v>
       </c>
       <c r="AD4" t="n">
-        <v>1961973.135466265</v>
+        <v>2068919.561297341</v>
       </c>
       <c r="AE4" t="n">
-        <v>2684458.200090854</v>
+        <v>2830787.01805625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306734814235323e-06</v>
+        <v>1.940296299369564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.78958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2428257.277134929</v>
+        <v>2560620.678087494</v>
       </c>
     </row>
     <row r="5">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1789.177769399388</v>
+        <v>1887.976323263063</v>
       </c>
       <c r="AB5" t="n">
-        <v>2448.03195704462</v>
+        <v>2583.212497125476</v>
       </c>
       <c r="AC5" t="n">
-        <v>2214.395222898712</v>
+        <v>2336.674321961331</v>
       </c>
       <c r="AD5" t="n">
-        <v>1789177.769399388</v>
+        <v>1887976.323263063</v>
       </c>
       <c r="AE5" t="n">
-        <v>2448031.95704462</v>
+        <v>2583212.497125476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377171614669474e-06</v>
+        <v>2.044883903321779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2214395.222898712</v>
+        <v>2336674.321961331</v>
       </c>
     </row>
     <row r="6">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1685.116425442177</v>
+        <v>1783.82963845128</v>
       </c>
       <c r="AB6" t="n">
-        <v>2305.650635379875</v>
+        <v>2440.714408338533</v>
       </c>
       <c r="AC6" t="n">
-        <v>2085.60257474021</v>
+        <v>2207.77605077089</v>
       </c>
       <c r="AD6" t="n">
-        <v>1685116.425442177</v>
+        <v>1783829.63845128</v>
       </c>
       <c r="AE6" t="n">
-        <v>2305650.635379876</v>
+        <v>2440714.408338533</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420242240983512e-06</v>
+        <v>2.108837029800285e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.80833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2085602.57474021</v>
+        <v>2207776.05077089</v>
       </c>
     </row>
     <row r="7">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1618.92369016661</v>
+        <v>1709.403779862292</v>
       </c>
       <c r="AB7" t="n">
-        <v>2215.082814758463</v>
+        <v>2338.881665179932</v>
       </c>
       <c r="AC7" t="n">
-        <v>2003.678419806171</v>
+        <v>2115.662081696193</v>
       </c>
       <c r="AD7" t="n">
-        <v>1618923.69016661</v>
+        <v>1709403.779862292</v>
       </c>
       <c r="AE7" t="n">
-        <v>2215082.814758463</v>
+        <v>2338881.665179932</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449474290611814e-06</v>
+        <v>2.152242039829019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.35</v>
       </c>
       <c r="AH7" t="n">
-        <v>2003678.419806171</v>
+        <v>2115662.081696193</v>
       </c>
     </row>
     <row r="8">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1569.142383862815</v>
+        <v>1659.622473558497</v>
       </c>
       <c r="AB8" t="n">
-        <v>2146.969835277376</v>
+        <v>2270.768685698845</v>
       </c>
       <c r="AC8" t="n">
-        <v>1942.066047489592</v>
+        <v>2054.049709379614</v>
       </c>
       <c r="AD8" t="n">
-        <v>1569142.383862815</v>
+        <v>1659622.473558497</v>
       </c>
       <c r="AE8" t="n">
-        <v>2146969.835277376</v>
+        <v>2270768.685698845</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470465390078944e-06</v>
+        <v>2.183410531073056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.02916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1942066.047489592</v>
+        <v>2054049.709379614</v>
       </c>
     </row>
     <row r="9">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1518.772006534036</v>
+        <v>1617.399878688567</v>
       </c>
       <c r="AB9" t="n">
-        <v>2078.050862831926</v>
+        <v>2212.997868668387</v>
       </c>
       <c r="AC9" t="n">
-        <v>1879.724605045951</v>
+        <v>2001.792458044692</v>
       </c>
       <c r="AD9" t="n">
-        <v>1518772.006534036</v>
+        <v>1617399.878688567</v>
       </c>
       <c r="AE9" t="n">
-        <v>2078050.862831926</v>
+        <v>2212997.868668387</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486791800775602e-06</v>
+        <v>2.20765269092953e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.7875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1879724.605045951</v>
+        <v>2001792.458044691</v>
       </c>
     </row>
     <row r="10">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1482.866284766234</v>
+        <v>1573.431625807936</v>
       </c>
       <c r="AB10" t="n">
-        <v>2028.923070260573</v>
+        <v>2152.838565334691</v>
       </c>
       <c r="AC10" t="n">
-        <v>1835.285500046317</v>
+        <v>1947.374674187051</v>
       </c>
       <c r="AD10" t="n">
-        <v>1482866.284766234</v>
+        <v>1573431.625807936</v>
       </c>
       <c r="AE10" t="n">
-        <v>2028923.070260573</v>
+        <v>2152838.565334691</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.49938646045588e-06</v>
+        <v>2.226353785675953e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.60625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1835285.500046317</v>
+        <v>1947374.674187051</v>
       </c>
     </row>
     <row r="11">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1451.572647108384</v>
+        <v>1541.967395949493</v>
       </c>
       <c r="AB11" t="n">
-        <v>1986.105734639245</v>
+        <v>2109.787817938516</v>
       </c>
       <c r="AC11" t="n">
-        <v>1796.55459084218</v>
+        <v>1908.432629700263</v>
       </c>
       <c r="AD11" t="n">
-        <v>1451572.647108384</v>
+        <v>1541967.395949493</v>
       </c>
       <c r="AE11" t="n">
-        <v>1986105.734639245</v>
+        <v>2109787.817938515</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.509026817248192e-06</v>
+        <v>2.240668203876918e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.46666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1796554.59084218</v>
+        <v>1908432.629700263</v>
       </c>
     </row>
     <row r="12">
@@ -18433,28 +18433,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1421.756138273245</v>
+        <v>1512.150887114355</v>
       </c>
       <c r="AB12" t="n">
-        <v>1945.309471839475</v>
+        <v>2068.991555138746</v>
       </c>
       <c r="AC12" t="n">
-        <v>1759.651866106107</v>
+        <v>1871.529904964189</v>
       </c>
       <c r="AD12" t="n">
-        <v>1421756.138273245</v>
+        <v>1512150.887114355</v>
       </c>
       <c r="AE12" t="n">
-        <v>1945309.471839475</v>
+        <v>2068991.555138746</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.517889725912092e-06</v>
+        <v>2.253828233513289e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.34166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1759651.866106107</v>
+        <v>1871529.904964189</v>
       </c>
     </row>
     <row r="13">
@@ -18539,28 +18539,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1393.740862624268</v>
+        <v>1484.135611465377</v>
       </c>
       <c r="AB13" t="n">
-        <v>1906.977735749812</v>
+        <v>2030.659819049083</v>
       </c>
       <c r="AC13" t="n">
-        <v>1724.978457109911</v>
+        <v>1836.856495967994</v>
       </c>
       <c r="AD13" t="n">
-        <v>1393740.862624268</v>
+        <v>1484135.611465378</v>
       </c>
       <c r="AE13" t="n">
-        <v>1906977.735749812</v>
+        <v>2030659.819049083</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.52473126944212e-06</v>
+        <v>2.263986852881716e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.24583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1724978.457109911</v>
+        <v>1836856.495967994</v>
       </c>
     </row>
     <row r="14">
@@ -18645,28 +18645,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1387.244209585928</v>
+        <v>1477.638958427038</v>
       </c>
       <c r="AB14" t="n">
-        <v>1898.088728450652</v>
+        <v>2021.770811749923</v>
       </c>
       <c r="AC14" t="n">
-        <v>1716.937804191583</v>
+        <v>1828.815843049666</v>
       </c>
       <c r="AD14" t="n">
-        <v>1387244.209585928</v>
+        <v>1477638.958427038</v>
       </c>
       <c r="AE14" t="n">
-        <v>1898088.728450652</v>
+        <v>2021770.811749923</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.266988263149661e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.21875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1716937.804191583</v>
+        <v>1828815.843049665</v>
       </c>
     </row>
     <row r="15">
@@ -18751,28 +18751,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1393.783069528453</v>
+        <v>1484.177818369563</v>
       </c>
       <c r="AB15" t="n">
-        <v>1907.035485098155</v>
+        <v>2030.717568397426</v>
       </c>
       <c r="AC15" t="n">
-        <v>1725.0306949415</v>
+        <v>1836.908733799583</v>
       </c>
       <c r="AD15" t="n">
-        <v>1393783.069528453</v>
+        <v>1484177.818369563</v>
       </c>
       <c r="AE15" t="n">
-        <v>1907035.485098155</v>
+        <v>2030717.568397426</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.526752634575992e-06</v>
+        <v>2.266988263149661e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.21666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1725030.6949415</v>
+        <v>1836908.733799583</v>
       </c>
     </row>
   </sheetData>
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5863.168154829377</v>
+        <v>6055.24320342666</v>
       </c>
       <c r="AB2" t="n">
-        <v>8022.245334161364</v>
+        <v>8285.050889405276</v>
       </c>
       <c r="AC2" t="n">
-        <v>7256.613498760742</v>
+        <v>7494.337260662079</v>
       </c>
       <c r="AD2" t="n">
-        <v>5863168.154829377</v>
+        <v>6055243.20342666</v>
       </c>
       <c r="AE2" t="n">
-        <v>8022245.334161364</v>
+        <v>8285050.889405277</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.97910105135792e-07</v>
+        <v>1.026236665214165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.48125</v>
       </c>
       <c r="AH2" t="n">
-        <v>7256613.498760742</v>
+        <v>7494337.260662079</v>
       </c>
     </row>
     <row r="3">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2694.579415334534</v>
+        <v>2819.871666304664</v>
       </c>
       <c r="AB3" t="n">
-        <v>3686.842432514846</v>
+        <v>3858.272817796188</v>
       </c>
       <c r="AC3" t="n">
-        <v>3334.975365271343</v>
+        <v>3490.044675185484</v>
       </c>
       <c r="AD3" t="n">
-        <v>2694579.415334534</v>
+        <v>2819871.666304664</v>
       </c>
       <c r="AE3" t="n">
-        <v>3686842.432514846</v>
+        <v>3858272.817796187</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099806384845074e-06</v>
+        <v>1.61720202710785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.86041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3334975.365271342</v>
+        <v>3490044.675185484</v>
       </c>
     </row>
     <row r="4">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2192.6595257524</v>
+        <v>2301.149513133215</v>
       </c>
       <c r="AB4" t="n">
-        <v>3000.093496445787</v>
+        <v>3148.534283420674</v>
       </c>
       <c r="AC4" t="n">
-        <v>2713.768783802556</v>
+        <v>2848.042590406507</v>
       </c>
       <c r="AD4" t="n">
-        <v>2192659.5257524</v>
+        <v>2301149.513133215</v>
       </c>
       <c r="AE4" t="n">
-        <v>3000093.496445788</v>
+        <v>3148534.283420674</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245147192594374e-06</v>
+        <v>1.83091732477524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.48958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2713768.783802556</v>
+        <v>2848042.590406507</v>
       </c>
     </row>
     <row r="5">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1984.21846009365</v>
+        <v>2084.435282207389</v>
       </c>
       <c r="AB5" t="n">
-        <v>2714.895234640501</v>
+        <v>2852.016311910675</v>
       </c>
       <c r="AC5" t="n">
-        <v>2455.789443825804</v>
+        <v>2579.823877931954</v>
       </c>
       <c r="AD5" t="n">
-        <v>1984218.46009365</v>
+        <v>2084435.282207389</v>
       </c>
       <c r="AE5" t="n">
-        <v>2714895.234640501</v>
+        <v>2852016.311910675</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.321626317846103e-06</v>
+        <v>1.943375479313007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.01666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2455789.443825805</v>
+        <v>2579823.877931953</v>
       </c>
     </row>
     <row r="6">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1862.90502490093</v>
+        <v>1963.036506160098</v>
       </c>
       <c r="AB6" t="n">
-        <v>2548.908840638784</v>
+        <v>2685.913150786761</v>
       </c>
       <c r="AC6" t="n">
-        <v>2305.644558304245</v>
+        <v>2429.573369378455</v>
       </c>
       <c r="AD6" t="n">
-        <v>1862905.02490093</v>
+        <v>1963036.506160098</v>
       </c>
       <c r="AE6" t="n">
-        <v>2548908.840638784</v>
+        <v>2685913.150786761</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368549765211705e-06</v>
+        <v>2.012373709587174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.19166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2305644.558304245</v>
+        <v>2429573.369378455</v>
       </c>
     </row>
     <row r="7">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1782.362094007657</v>
+        <v>1882.578826612845</v>
       </c>
       <c r="AB7" t="n">
-        <v>2438.706449287277</v>
+        <v>2575.827404087902</v>
       </c>
       <c r="AC7" t="n">
-        <v>2205.959728513297</v>
+        <v>2329.994051838219</v>
       </c>
       <c r="AD7" t="n">
-        <v>1782362.094007657</v>
+        <v>1882578.826612845</v>
       </c>
       <c r="AE7" t="n">
-        <v>2438706.449287277</v>
+        <v>2575827.404087902</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.398714838518163e-06</v>
+        <v>2.056729714763425e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.69166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2205959.728513297</v>
+        <v>2329994.051838219</v>
       </c>
     </row>
     <row r="8">
@@ -19684,28 +19684,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1726.529297436574</v>
+        <v>1818.387613428667</v>
       </c>
       <c r="AB8" t="n">
-        <v>2362.313553849579</v>
+        <v>2487.99815429285</v>
       </c>
       <c r="AC8" t="n">
-        <v>2136.85766379807</v>
+        <v>2250.54710237448</v>
       </c>
       <c r="AD8" t="n">
-        <v>1726529.297436574</v>
+        <v>1818387.613428667</v>
       </c>
       <c r="AE8" t="n">
-        <v>2362313.553849578</v>
+        <v>2487998.15429285</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421719515635715e-06</v>
+        <v>2.090556769216021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.32291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2136857.66379807</v>
+        <v>2250547.102374481</v>
       </c>
     </row>
     <row r="9">
@@ -19790,28 +19790,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1681.329114050722</v>
+        <v>1773.187430042815</v>
       </c>
       <c r="AB9" t="n">
-        <v>2300.4686688497</v>
+        <v>2426.153269292972</v>
       </c>
       <c r="AC9" t="n">
-        <v>2080.915167822739</v>
+        <v>2194.60460639915</v>
       </c>
       <c r="AD9" t="n">
-        <v>1681329.114050722</v>
+        <v>1773187.430042815</v>
       </c>
       <c r="AE9" t="n">
-        <v>2300468.6688497</v>
+        <v>2426153.269292972</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439849029390607e-06</v>
+        <v>2.117215176367404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.04375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2080915.167822739</v>
+        <v>2194604.60639915</v>
       </c>
     </row>
     <row r="10">
@@ -19896,28 +19896,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1637.144446612064</v>
+        <v>1737.275838362681</v>
       </c>
       <c r="AB10" t="n">
-        <v>2240.013257570175</v>
+        <v>2377.017445248603</v>
       </c>
       <c r="AC10" t="n">
-        <v>2026.229536146029</v>
+        <v>2150.158236439013</v>
       </c>
       <c r="AD10" t="n">
-        <v>1637144.446612064</v>
+        <v>1737275.838362681</v>
       </c>
       <c r="AE10" t="n">
-        <v>2240013.257570175</v>
+        <v>2377017.445248603</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.453103379782839e-06</v>
+        <v>2.136704936217574e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.84166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2026229.536146029</v>
+        <v>2150158.236439013</v>
       </c>
     </row>
     <row r="11">
@@ -20002,28 +20002,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1604.520236728861</v>
+        <v>1696.463804066975</v>
       </c>
       <c r="AB11" t="n">
-        <v>2195.375374329416</v>
+        <v>2321.176619425338</v>
       </c>
       <c r="AC11" t="n">
-        <v>1985.851829832106</v>
+        <v>2099.646780659229</v>
       </c>
       <c r="AD11" t="n">
-        <v>1604520.236728861</v>
+        <v>1696463.804066975</v>
       </c>
       <c r="AE11" t="n">
-        <v>2195375.374329416</v>
+        <v>2321176.619425338</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.153058412873465e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.675</v>
       </c>
       <c r="AH11" t="n">
-        <v>1985851.829832106</v>
+        <v>2099646.780659229</v>
       </c>
     </row>
     <row r="12">
@@ -20108,28 +20108,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1574.711423991409</v>
+        <v>1666.654991329522</v>
       </c>
       <c r="AB12" t="n">
-        <v>2154.589641670029</v>
+        <v>2280.39088676595</v>
       </c>
       <c r="AC12" t="n">
-        <v>1948.958630254595</v>
+        <v>2062.753581081718</v>
       </c>
       <c r="AD12" t="n">
-        <v>1574711.423991409</v>
+        <v>1666654.991329522</v>
       </c>
       <c r="AE12" t="n">
-        <v>2154589.641670029</v>
+        <v>2280390.88676595</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.473975172929227e-06</v>
+        <v>2.167395707475889e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1948958.630254595</v>
+        <v>2062753.581081718</v>
       </c>
     </row>
     <row r="13">
@@ -20214,28 +20214,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1547.804620267214</v>
+        <v>1639.577595404736</v>
       </c>
       <c r="AB13" t="n">
-        <v>2117.774565770183</v>
+        <v>2243.342399091257</v>
       </c>
       <c r="AC13" t="n">
-        <v>1915.657133528348</v>
+        <v>2029.240949072819</v>
       </c>
       <c r="AD13" t="n">
-        <v>1547804.620267214</v>
+        <v>1639577.595404736</v>
       </c>
       <c r="AE13" t="n">
-        <v>2117774.565770184</v>
+        <v>2243342.399091257</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481592615683383e-06</v>
+        <v>2.178596718884033e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.42083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1915657.133528348</v>
+        <v>2029240.949072819</v>
       </c>
     </row>
     <row r="14">
@@ -20320,28 +20320,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1524.8962357874</v>
+        <v>1616.669210924922</v>
       </c>
       <c r="AB14" t="n">
-        <v>2086.430303478307</v>
+        <v>2211.998136799381</v>
       </c>
       <c r="AC14" t="n">
-        <v>1887.304323637659</v>
+        <v>2000.888139182131</v>
       </c>
       <c r="AD14" t="n">
-        <v>1524896.235787401</v>
+        <v>1616669.210924922</v>
       </c>
       <c r="AE14" t="n">
-        <v>2086430.303478306</v>
+        <v>2211998.136799381</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487077174466375e-06</v>
+        <v>2.186661447097897e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.34375</v>
       </c>
       <c r="AH14" t="n">
-        <v>1887304.323637659</v>
+        <v>2000888.139182131</v>
       </c>
     </row>
     <row r="15">
@@ -20426,28 +20426,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1498.106910306161</v>
+        <v>1589.879885443682</v>
       </c>
       <c r="AB15" t="n">
-        <v>2049.775966493246</v>
+        <v>2175.343799814321</v>
       </c>
       <c r="AC15" t="n">
-        <v>1854.148225129768</v>
+        <v>1967.73204067424</v>
       </c>
       <c r="AD15" t="n">
-        <v>1498106.910306161</v>
+        <v>1589879.885443683</v>
       </c>
       <c r="AE15" t="n">
-        <v>2049775.966493247</v>
+        <v>2175343.799814321</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.494237570655282e-06</v>
+        <v>2.197190397821553e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.24166666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1854148.225129768</v>
+        <v>1967732.04067424</v>
       </c>
     </row>
     <row r="16">
@@ -20532,28 +20532,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1476.925259076328</v>
+        <v>1568.69823421385</v>
       </c>
       <c r="AB16" t="n">
-        <v>2020.794296812088</v>
+        <v>2146.362130133163</v>
       </c>
       <c r="AC16" t="n">
-        <v>1827.932525326951</v>
+        <v>1941.516340871422</v>
       </c>
       <c r="AD16" t="n">
-        <v>1476925.259076328</v>
+        <v>1568698.23421385</v>
       </c>
       <c r="AE16" t="n">
-        <v>2020794.296812088</v>
+        <v>2146362.130133163</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.49850333859761e-06</v>
+        <v>2.203462964210113e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.18125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1827932.52532695</v>
+        <v>1941516.340871423</v>
       </c>
     </row>
     <row r="17">
@@ -20638,28 +20638,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1471.894077821026</v>
+        <v>1563.667052958548</v>
       </c>
       <c r="AB17" t="n">
-        <v>2013.910412658532</v>
+        <v>2139.478245979607</v>
       </c>
       <c r="AC17" t="n">
-        <v>1821.705629415418</v>
+        <v>1935.28944495989</v>
       </c>
       <c r="AD17" t="n">
-        <v>1471894.077821027</v>
+        <v>1563667.052958548</v>
       </c>
       <c r="AE17" t="n">
-        <v>2013910.412658532</v>
+        <v>2139478.245979607</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.499874478293358e-06</v>
+        <v>2.205479146263579e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.1625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1821705.629415418</v>
+        <v>1935289.44495989</v>
       </c>
     </row>
     <row r="18">
@@ -20744,28 +20744,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1478.240745722252</v>
+        <v>1570.013720859773</v>
       </c>
       <c r="AB18" t="n">
-        <v>2022.594203676216</v>
+        <v>2148.16203699729</v>
       </c>
       <c r="AC18" t="n">
-        <v>1829.560651606151</v>
+        <v>1943.144467150623</v>
       </c>
       <c r="AD18" t="n">
-        <v>1478240.745722252</v>
+        <v>1570013.720859773</v>
       </c>
       <c r="AE18" t="n">
-        <v>2022594.203676216</v>
+        <v>2148162.03699729</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.499722129438275e-06</v>
+        <v>2.205255126035417e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.16458333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1829560.651606151</v>
+        <v>1943144.467150623</v>
       </c>
     </row>
   </sheetData>
@@ -21041,28 +21041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9568.548596637325</v>
+        <v>9817.255865478279</v>
       </c>
       <c r="AB2" t="n">
-        <v>13092.11032449126</v>
+        <v>13432.40258190979</v>
       </c>
       <c r="AC2" t="n">
-        <v>11842.61769001356</v>
+        <v>12150.43293198724</v>
       </c>
       <c r="AD2" t="n">
-        <v>9568548.596637325</v>
+        <v>9817255.865478279</v>
       </c>
       <c r="AE2" t="n">
-        <v>13092110.32449125</v>
+        <v>13432402.58190979</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.348231516822267e-07</v>
+        <v>7.737674317820074e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>11842617.69001356</v>
+        <v>12150432.93198724</v>
       </c>
     </row>
     <row r="3">
@@ -21147,28 +21147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3436.816037507651</v>
+        <v>3573.957368640326</v>
       </c>
       <c r="AB3" t="n">
-        <v>4702.403324140895</v>
+        <v>4890.046143645155</v>
       </c>
       <c r="AC3" t="n">
-        <v>4253.612550749227</v>
+        <v>4423.347002918345</v>
       </c>
       <c r="AD3" t="n">
-        <v>3436816.037507651</v>
+        <v>3573957.368640326</v>
       </c>
       <c r="AE3" t="n">
-        <v>4702403.324140895</v>
+        <v>4890046.143645155</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.728869869479273e-07</v>
+        <v>1.407546144808843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.49166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4253612.550749227</v>
+        <v>4423347.002918346</v>
       </c>
     </row>
     <row r="4">
@@ -21253,28 +21253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2667.024148404929</v>
+        <v>2787.086740466967</v>
       </c>
       <c r="AB4" t="n">
-        <v>3649.140100649179</v>
+        <v>3813.4150358962</v>
       </c>
       <c r="AC4" t="n">
-        <v>3300.871291043381</v>
+        <v>3449.46805703174</v>
       </c>
       <c r="AD4" t="n">
-        <v>2667024.148404929</v>
+        <v>2787086.740466967</v>
       </c>
       <c r="AE4" t="n">
-        <v>3649140.100649179</v>
+        <v>3813415.0358962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.13567203751494e-06</v>
+        <v>1.64305908046534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>3300871.291043381</v>
+        <v>3449468.05703174</v>
       </c>
     </row>
     <row r="5">
@@ -21359,28 +21359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2378.106911626465</v>
+        <v>2489.502257134152</v>
       </c>
       <c r="AB5" t="n">
-        <v>3253.830791159951</v>
+        <v>3406.246817299379</v>
       </c>
       <c r="AC5" t="n">
-        <v>2943.28974723172</v>
+        <v>3081.159401753631</v>
       </c>
       <c r="AD5" t="n">
-        <v>2378106.911626465</v>
+        <v>2489502.257134153</v>
       </c>
       <c r="AE5" t="n">
-        <v>3253830.791159951</v>
+        <v>3406246.817299379</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220814353936169e-06</v>
+        <v>1.766240643017384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2943289.74723172</v>
+        <v>3081159.401753631</v>
       </c>
     </row>
     <row r="6">
@@ -21465,28 +21465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2215.154265452728</v>
+        <v>2318.052956606658</v>
       </c>
       <c r="AB6" t="n">
-        <v>3030.871791701653</v>
+        <v>3171.662320508335</v>
       </c>
       <c r="AC6" t="n">
-        <v>2741.609641756809</v>
+        <v>2868.963320094924</v>
       </c>
       <c r="AD6" t="n">
-        <v>2215154.265452728</v>
+        <v>2318052.956606658</v>
       </c>
       <c r="AE6" t="n">
-        <v>3030871.791701653</v>
+        <v>3171662.320508335</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274340784294247e-06</v>
+        <v>1.843681210839394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.03958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2741609.641756809</v>
+        <v>2868963.320094924</v>
       </c>
     </row>
     <row r="7">
@@ -21571,28 +21571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2105.222212524395</v>
+        <v>2208.035562823756</v>
       </c>
       <c r="AB7" t="n">
-        <v>2880.457907025045</v>
+        <v>3021.131668709698</v>
       </c>
       <c r="AC7" t="n">
-        <v>2605.551047126638</v>
+        <v>2732.799102432858</v>
       </c>
       <c r="AD7" t="n">
-        <v>2105222.212524395</v>
+        <v>2208035.562823756</v>
       </c>
       <c r="AE7" t="n">
-        <v>2880457.907025045</v>
+        <v>3021131.668709698</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.311838695671472e-06</v>
+        <v>1.897932158077341e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.35208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2605551.047126638</v>
+        <v>2732799.102432858</v>
       </c>
     </row>
     <row r="8">
@@ -21677,28 +21677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2028.396654877235</v>
+        <v>2131.295256522613</v>
       </c>
       <c r="AB8" t="n">
-        <v>2775.341789747802</v>
+        <v>2916.132196084926</v>
       </c>
       <c r="AC8" t="n">
-        <v>2510.467064550937</v>
+        <v>2637.820632107823</v>
       </c>
       <c r="AD8" t="n">
-        <v>2028396.654877234</v>
+        <v>2131295.256522613</v>
       </c>
       <c r="AE8" t="n">
-        <v>2775341.789747802</v>
+        <v>2916132.196084926</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.337572556420548e-06</v>
+        <v>1.935163200299461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.90416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2510467.064550937</v>
+        <v>2637820.632107823</v>
       </c>
     </row>
     <row r="9">
@@ -21783,28 +21783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1974.814820031102</v>
+        <v>2077.713421676481</v>
       </c>
       <c r="AB9" t="n">
-        <v>2702.028759447603</v>
+        <v>2842.819165784728</v>
       </c>
       <c r="AC9" t="n">
-        <v>2444.150926967106</v>
+        <v>2571.504494523992</v>
       </c>
       <c r="AD9" t="n">
-        <v>1974814.820031102</v>
+        <v>2077713.421676481</v>
       </c>
       <c r="AE9" t="n">
-        <v>2702028.759447603</v>
+        <v>2842819.165784728</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358012594386957e-06</v>
+        <v>1.964735285264459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.55833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2444150.926967106</v>
+        <v>2571504.494523992</v>
       </c>
     </row>
     <row r="10">
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1932.369058396792</v>
+        <v>2026.685754342393</v>
       </c>
       <c r="AB10" t="n">
-        <v>2643.952595804696</v>
+        <v>2773.000860156426</v>
       </c>
       <c r="AC10" t="n">
-        <v>2391.61747087187</v>
+        <v>2508.349549994247</v>
       </c>
       <c r="AD10" t="n">
-        <v>1932369.058396792</v>
+        <v>2026685.754342393</v>
       </c>
       <c r="AE10" t="n">
-        <v>2643952.595804696</v>
+        <v>2773000.860156426</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.373894062734958e-06</v>
+        <v>1.987712157035825e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.29791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2391617.470871869</v>
+        <v>2508349.549994247</v>
       </c>
     </row>
     <row r="11">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1895.412207384163</v>
+        <v>1989.728903329763</v>
       </c>
       <c r="AB11" t="n">
-        <v>2593.38660182802</v>
+        <v>2722.434866179749</v>
       </c>
       <c r="AC11" t="n">
-        <v>2345.877424390509</v>
+        <v>2462.609503512886</v>
       </c>
       <c r="AD11" t="n">
-        <v>1895412.207384163</v>
+        <v>1989728.903329763</v>
       </c>
       <c r="AE11" t="n">
-        <v>2593386.60182802</v>
+        <v>2722434.866179749</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387128619691626e-06</v>
+        <v>2.00685955017863e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.08541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2345877.424390509</v>
+        <v>2462609.503512886</v>
       </c>
     </row>
     <row r="12">
@@ -22101,28 +22101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1860.070390999534</v>
+        <v>1962.883651790341</v>
       </c>
       <c r="AB12" t="n">
-        <v>2545.030369479673</v>
+        <v>2685.7040086946</v>
       </c>
       <c r="AC12" t="n">
-        <v>2302.13624298909</v>
+        <v>2429.384187514037</v>
       </c>
       <c r="AD12" t="n">
-        <v>1860070.390999534</v>
+        <v>1962883.651790341</v>
       </c>
       <c r="AE12" t="n">
-        <v>2545030.369479673</v>
+        <v>2685704.0086946</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396392809561294e-06</v>
+        <v>2.020262725378593e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2302136.24298909</v>
+        <v>2429384.187514037</v>
       </c>
     </row>
     <row r="13">
@@ -22207,28 +22207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1830.709108588654</v>
+        <v>1933.522369379461</v>
       </c>
       <c r="AB13" t="n">
-        <v>2504.856967556746</v>
+        <v>2645.530606771673</v>
       </c>
       <c r="AC13" t="n">
-        <v>2265.796934161964</v>
+        <v>2393.044878686911</v>
       </c>
       <c r="AD13" t="n">
-        <v>1830709.108588654</v>
+        <v>1933522.369379461</v>
       </c>
       <c r="AE13" t="n">
-        <v>2504856.967556746</v>
+        <v>2645530.606771674</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.406245201962368e-06</v>
+        <v>2.034516895829347e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.78541666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2265796.934161964</v>
+        <v>2393044.878686911</v>
       </c>
     </row>
     <row r="14">
@@ -22313,28 +22313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1806.599044398439</v>
+        <v>1901.00099169006</v>
       </c>
       <c r="AB14" t="n">
-        <v>2471.868514070732</v>
+        <v>2601.03342307511</v>
       </c>
       <c r="AC14" t="n">
-        <v>2235.956852377069</v>
+        <v>2352.794443750158</v>
       </c>
       <c r="AD14" t="n">
-        <v>1806599.044398439</v>
+        <v>1901000.99169006</v>
       </c>
       <c r="AE14" t="n">
-        <v>2471868.514070732</v>
+        <v>2601033.42307511</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.413744784237813e-06</v>
+        <v>2.045367085276937e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.67083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2235956.852377069</v>
+        <v>2352794.443750158</v>
       </c>
     </row>
     <row r="15">
@@ -22419,28 +22419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1784.921668694515</v>
+        <v>1879.323615986136</v>
       </c>
       <c r="AB15" t="n">
-        <v>2442.208572294302</v>
+        <v>2571.37348129868</v>
       </c>
       <c r="AC15" t="n">
-        <v>2209.127613815792</v>
+        <v>2325.965205188882</v>
       </c>
       <c r="AD15" t="n">
-        <v>1784921.668694515</v>
+        <v>1879323.615986136</v>
       </c>
       <c r="AE15" t="n">
-        <v>2442208.572294301</v>
+        <v>2571373.48129868</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.419479758919036e-06</v>
+        <v>2.053664288972152e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.58125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2209127.613815792</v>
+        <v>2325965.205188882</v>
       </c>
     </row>
     <row r="16">
@@ -22525,28 +22525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1764.970775754273</v>
+        <v>1859.202130845302</v>
       </c>
       <c r="AB16" t="n">
-        <v>2414.910880402185</v>
+        <v>2543.842377631718</v>
       </c>
       <c r="AC16" t="n">
-        <v>2184.435175325309</v>
+        <v>2301.061631415746</v>
       </c>
       <c r="AD16" t="n">
-        <v>1764970.775754273</v>
+        <v>1859202.130845302</v>
       </c>
       <c r="AE16" t="n">
-        <v>2414910.880402185</v>
+        <v>2543842.377631718</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.425214733600259e-06</v>
+        <v>2.061961492667367e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.49583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2184435.175325308</v>
+        <v>2301061.631415747</v>
       </c>
     </row>
     <row r="17">
@@ -22631,28 +22631,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1744.011388570708</v>
+        <v>1838.242743661737</v>
       </c>
       <c r="AB17" t="n">
-        <v>2386.233322194728</v>
+        <v>2515.164819424261</v>
       </c>
       <c r="AC17" t="n">
-        <v>2158.494563023965</v>
+        <v>2275.121019114404</v>
       </c>
       <c r="AD17" t="n">
-        <v>1744011.388570708</v>
+        <v>1838242.743661737</v>
       </c>
       <c r="AE17" t="n">
-        <v>2386233.322194729</v>
+        <v>2515164.819424261</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.431096758914333e-06</v>
+        <v>2.070471445175281e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH17" t="n">
-        <v>2158494.563023965</v>
+        <v>2275121.019114404</v>
       </c>
     </row>
     <row r="18">
@@ -22737,28 +22737,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1727.419505886456</v>
+        <v>1821.650860977486</v>
       </c>
       <c r="AB18" t="n">
-        <v>2363.531576323933</v>
+        <v>2492.463073553465</v>
       </c>
       <c r="AC18" t="n">
-        <v>2137.959439916978</v>
+        <v>2254.585896007417</v>
       </c>
       <c r="AD18" t="n">
-        <v>1727419.505886456</v>
+        <v>1821650.860977486</v>
       </c>
       <c r="AE18" t="n">
-        <v>2363531.576323933</v>
+        <v>2492463.073553465</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.434625974102778e-06</v>
+        <v>2.075577416680029e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2137959.439916978</v>
+        <v>2254585.896007416</v>
       </c>
     </row>
     <row r="19">
@@ -22843,28 +22843,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1709.478390690176</v>
+        <v>1803.709745781206</v>
       </c>
       <c r="AB19" t="n">
-        <v>2338.983751006242</v>
+        <v>2467.915248235774</v>
       </c>
       <c r="AC19" t="n">
-        <v>2115.754424594518</v>
+        <v>2232.380880684957</v>
       </c>
       <c r="AD19" t="n">
-        <v>1709478.390690177</v>
+        <v>1803709.745781206</v>
       </c>
       <c r="AE19" t="n">
-        <v>2338983.751006242</v>
+        <v>2467915.248235774</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.439037493088334e-06</v>
+        <v>2.081959881060964e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.2875</v>
       </c>
       <c r="AH19" t="n">
-        <v>2115754.424594518</v>
+        <v>2232380.880684956</v>
       </c>
     </row>
     <row r="20">
@@ -22949,28 +22949,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1692.994727078237</v>
+        <v>1787.226082169266</v>
       </c>
       <c r="AB20" t="n">
-        <v>2316.430075244471</v>
+        <v>2445.361572474003</v>
       </c>
       <c r="AC20" t="n">
-        <v>2095.353239993167</v>
+        <v>2211.979696083606</v>
       </c>
       <c r="AD20" t="n">
-        <v>1692994.727078237</v>
+        <v>1787226.082169265</v>
       </c>
       <c r="AE20" t="n">
-        <v>2316430.07524447</v>
+        <v>2445361.572474002</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.44271375890963e-06</v>
+        <v>2.087278601378409e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.23333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2095353.239993167</v>
+        <v>2211979.696083606</v>
       </c>
     </row>
     <row r="21">
@@ -23055,28 +23055,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1676.716344102922</v>
+        <v>1770.947699193951</v>
       </c>
       <c r="AB21" t="n">
-        <v>2294.157273506073</v>
+        <v>2423.088770735606</v>
       </c>
       <c r="AC21" t="n">
-        <v>2075.206123192609</v>
+        <v>2191.832579283047</v>
       </c>
       <c r="AD21" t="n">
-        <v>1676716.344102922</v>
+        <v>1770947.699193951</v>
       </c>
       <c r="AE21" t="n">
-        <v>2294157.273506073</v>
+        <v>2423088.770735606</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44506656903526e-06</v>
+        <v>2.090682582381575e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="AH21" t="n">
-        <v>2075206.123192609</v>
+        <v>2191832.579283047</v>
       </c>
     </row>
     <row r="22">
@@ -23161,28 +23161,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1661.058298813875</v>
+        <v>1755.289653904904</v>
       </c>
       <c r="AB22" t="n">
-        <v>2272.733245157395</v>
+        <v>2401.664742386926</v>
       </c>
       <c r="AC22" t="n">
-        <v>2055.826774040715</v>
+        <v>2172.453230131154</v>
       </c>
       <c r="AD22" t="n">
-        <v>1661058.298813875</v>
+        <v>1755289.653904904</v>
       </c>
       <c r="AE22" t="n">
-        <v>2272733.245157395</v>
+        <v>2401664.742386926</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.448595784223705e-06</v>
+        <v>2.095788553886322e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.14791666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2055826.774040715</v>
+        <v>2172453.230131154</v>
       </c>
     </row>
     <row r="23">
@@ -23267,28 +23267,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1648.009011869023</v>
+        <v>1733.829053460866</v>
       </c>
       <c r="AB23" t="n">
-        <v>2254.878635065538</v>
+        <v>2372.301402084523</v>
       </c>
       <c r="AC23" t="n">
-        <v>2039.676182876924</v>
+        <v>2145.892285815504</v>
       </c>
       <c r="AD23" t="n">
-        <v>1648009.011869023</v>
+        <v>1733829.053460866</v>
       </c>
       <c r="AE23" t="n">
-        <v>2254878.635065538</v>
+        <v>2372301.402084522</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.450654493083631e-06</v>
+        <v>2.098767037264092e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.11875</v>
       </c>
       <c r="AH23" t="n">
-        <v>2039676.182876924</v>
+        <v>2145892.285815504</v>
       </c>
     </row>
     <row r="24">
@@ -23373,28 +23373,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1642.862011419973</v>
+        <v>1728.682053011816</v>
       </c>
       <c r="AB24" t="n">
-        <v>2247.836281981514</v>
+        <v>2365.259049000498</v>
       </c>
       <c r="AC24" t="n">
-        <v>2033.305942087233</v>
+        <v>2139.522045025814</v>
       </c>
       <c r="AD24" t="n">
-        <v>1642862.011419973</v>
+        <v>1728682.053011816</v>
       </c>
       <c r="AE24" t="n">
-        <v>2247836.281981514</v>
+        <v>2365259.049000498</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.451683847513594e-06</v>
+        <v>2.100256278952977e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.10416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2033305.942087234</v>
+        <v>2139522.045025814</v>
       </c>
     </row>
     <row r="25">
@@ -23479,28 +23479,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1649.258536673856</v>
+        <v>1735.078578265699</v>
       </c>
       <c r="AB25" t="n">
-        <v>2256.588290028654</v>
+        <v>2374.011057047638</v>
       </c>
       <c r="AC25" t="n">
-        <v>2041.222670769875</v>
+        <v>2147.438773708456</v>
       </c>
       <c r="AD25" t="n">
-        <v>1649258.536673856</v>
+        <v>1735078.578265699</v>
       </c>
       <c r="AE25" t="n">
-        <v>2256588.290028654</v>
+        <v>2374011.057047638</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.45138974624789e-06</v>
+        <v>2.099830781327581e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.10625</v>
       </c>
       <c r="AH25" t="n">
-        <v>2041222.670769875</v>
+        <v>2147438.773708456</v>
       </c>
     </row>
   </sheetData>
@@ -23776,28 +23776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3669.879868903025</v>
+        <v>3823.529652133212</v>
       </c>
       <c r="AB2" t="n">
-        <v>5021.291540306635</v>
+        <v>5231.52195227222</v>
       </c>
       <c r="AC2" t="n">
-        <v>4542.066523126518</v>
+        <v>4732.232839634336</v>
       </c>
       <c r="AD2" t="n">
-        <v>3669879.868903025</v>
+        <v>3823529.652133212</v>
       </c>
       <c r="AE2" t="n">
-        <v>5021291.540306635</v>
+        <v>5231521.95227222</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.927922641805406e-07</v>
+        <v>1.340692406649221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.11875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4542066.523126518</v>
+        <v>4732232.839634336</v>
       </c>
     </row>
     <row r="3">
@@ -23882,28 +23882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2056.182205079197</v>
+        <v>2169.43819348941</v>
       </c>
       <c r="AB3" t="n">
-        <v>2813.359205346088</v>
+        <v>2968.321045190515</v>
       </c>
       <c r="AC3" t="n">
-        <v>2544.856151362301</v>
+        <v>2685.028650702284</v>
       </c>
       <c r="AD3" t="n">
-        <v>2056182.205079197</v>
+        <v>2169438.19348941</v>
       </c>
       <c r="AE3" t="n">
-        <v>2813359.205346088</v>
+        <v>2968321.045190515</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249145555656736e-06</v>
+        <v>1.875822661619687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.53333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2544856.151362301</v>
+        <v>2685028.650702284</v>
       </c>
     </row>
     <row r="4">
@@ -23988,28 +23988,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1742.173658798981</v>
+        <v>1839.238118251347</v>
       </c>
       <c r="AB4" t="n">
-        <v>2383.718859246136</v>
+        <v>2516.526734850594</v>
       </c>
       <c r="AC4" t="n">
-        <v>2156.220076890115</v>
+        <v>2276.352955243908</v>
       </c>
       <c r="AD4" t="n">
-        <v>1742173.658798981</v>
+        <v>1839238.118251347</v>
       </c>
       <c r="AE4" t="n">
-        <v>2383718.859246136</v>
+        <v>2516526.734850594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.374505552836755e-06</v>
+        <v>2.064073840600368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.1125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2156220.076890115</v>
+        <v>2276352.955243908</v>
       </c>
     </row>
     <row r="5">
@@ -24094,28 +24094,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1599.265669679638</v>
+        <v>1688.319660753377</v>
       </c>
       <c r="AB5" t="n">
-        <v>2188.185843877531</v>
+        <v>2310.033443249427</v>
       </c>
       <c r="AC5" t="n">
-        <v>1979.348458075979</v>
+        <v>2089.567093578002</v>
       </c>
       <c r="AD5" t="n">
-        <v>1599265.669679638</v>
+        <v>1688319.660753377</v>
       </c>
       <c r="AE5" t="n">
-        <v>2188185.843877531</v>
+        <v>2310033.443249427</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438776414335141e-06</v>
+        <v>2.160588404443256e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.03333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1979348.458075979</v>
+        <v>2089567.093578002</v>
       </c>
     </row>
     <row r="6">
@@ -24200,28 +24200,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1509.237329083452</v>
+        <v>1598.20597930262</v>
       </c>
       <c r="AB6" t="n">
-        <v>2065.005096503756</v>
+        <v>2186.735928753455</v>
       </c>
       <c r="AC6" t="n">
-        <v>1867.923908346293</v>
+        <v>1978.036920816377</v>
       </c>
       <c r="AD6" t="n">
-        <v>1509237.329083452</v>
+        <v>1598205.97930262</v>
       </c>
       <c r="AE6" t="n">
-        <v>2065005.096503756</v>
+        <v>2186735.928753455</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.4783889007537e-06</v>
+        <v>2.220073865821669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1867923.908346293</v>
+        <v>1978036.920816377</v>
       </c>
     </row>
     <row r="7">
@@ -24306,28 +24306,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1449.229494368383</v>
+        <v>1538.198144587551</v>
       </c>
       <c r="AB7" t="n">
-        <v>1982.899729687772</v>
+        <v>2104.630561937471</v>
       </c>
       <c r="AC7" t="n">
-        <v>1793.654562503621</v>
+        <v>1903.767574973704</v>
       </c>
       <c r="AD7" t="n">
-        <v>1449229.494368383</v>
+        <v>1538198.144587551</v>
       </c>
       <c r="AE7" t="n">
-        <v>1982899.729687772</v>
+        <v>2104630.561937471</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.50543357019609e-06</v>
+        <v>2.260686429814964e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.01666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1793654.562503621</v>
+        <v>1903767.574973704</v>
       </c>
     </row>
     <row r="8">
@@ -24412,28 +24412,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1394.691417202874</v>
+        <v>1483.745318768062</v>
       </c>
       <c r="AB8" t="n">
-        <v>1908.278326459769</v>
+        <v>2030.125803362117</v>
       </c>
       <c r="AC8" t="n">
-        <v>1726.1549212679</v>
+        <v>1836.373445988696</v>
       </c>
       <c r="AD8" t="n">
-        <v>1394691.417202874</v>
+        <v>1483745.318768062</v>
       </c>
       <c r="AE8" t="n">
-        <v>1908278.326459769</v>
+        <v>2030125.803362117</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52388757993325e-06</v>
+        <v>2.288398532304506e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>1726154.9212679</v>
+        <v>1836373.445988696</v>
       </c>
     </row>
     <row r="9">
@@ -24518,28 +24518,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1354.07113932995</v>
+        <v>1443.125040895138</v>
       </c>
       <c r="AB9" t="n">
-        <v>1852.69987023385</v>
+        <v>1974.547347136199</v>
       </c>
       <c r="AC9" t="n">
-        <v>1675.880794899331</v>
+        <v>1786.099319620126</v>
       </c>
       <c r="AD9" t="n">
-        <v>1354071.13932995</v>
+        <v>1443125.040895138</v>
       </c>
       <c r="AE9" t="n">
-        <v>1852699.87023385</v>
+        <v>1974547.347136199</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538523518690308e-06</v>
+        <v>2.310377096347935e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.54375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1675880.79489933</v>
+        <v>1786099.319620126</v>
       </c>
     </row>
     <row r="10">
@@ -24624,28 +24624,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1318.260203728338</v>
+        <v>1407.143513092934</v>
       </c>
       <c r="AB10" t="n">
-        <v>1803.701768276747</v>
+        <v>1925.315833404248</v>
       </c>
       <c r="AC10" t="n">
-        <v>1631.559003023745</v>
+        <v>1741.56639246189</v>
       </c>
       <c r="AD10" t="n">
-        <v>1318260.203728338</v>
+        <v>1407143.513092934</v>
       </c>
       <c r="AE10" t="n">
-        <v>1803701.768276747</v>
+        <v>1925315.833404248</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550295904212289e-06</v>
+        <v>2.328055506556781e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.37916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1631559.003023745</v>
+        <v>1741566.39246189</v>
       </c>
     </row>
     <row r="11">
@@ -24730,28 +24730,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1299.832002191384</v>
+        <v>1388.71531155598</v>
       </c>
       <c r="AB11" t="n">
-        <v>1778.487489939014</v>
+        <v>1900.101555066515</v>
       </c>
       <c r="AC11" t="n">
-        <v>1608.751140022104</v>
+        <v>1718.758529460248</v>
       </c>
       <c r="AD11" t="n">
-        <v>1299832.002191384</v>
+        <v>1388715.31155598</v>
       </c>
       <c r="AE11" t="n">
-        <v>1778487.489939014</v>
+        <v>1900101.555066515</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.555863924391605e-06</v>
+        <v>2.336416916790695e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1608751.140022103</v>
+        <v>1718758.529460248</v>
       </c>
     </row>
     <row r="12">
@@ -24836,28 +24836,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1305.647672287547</v>
+        <v>1394.530981652144</v>
       </c>
       <c r="AB12" t="n">
-        <v>1786.444746333842</v>
+        <v>1908.058811461343</v>
       </c>
       <c r="AC12" t="n">
-        <v>1615.948967034688</v>
+        <v>1725.956356472833</v>
       </c>
       <c r="AD12" t="n">
-        <v>1305647.672287547</v>
+        <v>1394530.981652144</v>
       </c>
       <c r="AE12" t="n">
-        <v>1786444.746333842</v>
+        <v>1908058.811461343</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.555704838100767e-06</v>
+        <v>2.33617801935544e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.30416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1615948.967034688</v>
+        <v>1725956.356472833</v>
       </c>
     </row>
   </sheetData>
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2512.49538734571</v>
+        <v>2638.141207872976</v>
       </c>
       <c r="AB2" t="n">
-        <v>3437.707032440147</v>
+        <v>3609.621187187952</v>
       </c>
       <c r="AC2" t="n">
-        <v>3109.617098116053</v>
+        <v>3265.124007217752</v>
       </c>
       <c r="AD2" t="n">
-        <v>2512495.38734571</v>
+        <v>2638141.207872977</v>
       </c>
       <c r="AE2" t="n">
-        <v>3437707.032440147</v>
+        <v>3609621.187187952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.075657233167369e-06</v>
+        <v>1.649785784281566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.09791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3109617.098116053</v>
+        <v>3265124.007217752</v>
       </c>
     </row>
     <row r="3">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1602.656761677405</v>
+        <v>1704.727916719879</v>
       </c>
       <c r="AB3" t="n">
-        <v>2192.825685553297</v>
+        <v>2332.48394294396</v>
       </c>
       <c r="AC3" t="n">
-        <v>1983.545479774269</v>
+        <v>2109.874949091163</v>
       </c>
       <c r="AD3" t="n">
-        <v>1602656.761677405</v>
+        <v>1704727.916719879</v>
       </c>
       <c r="AE3" t="n">
-        <v>2192825.685553297</v>
+        <v>2332483.94294396</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386041765246014e-06</v>
+        <v>2.125837051260363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1983545.479774269</v>
+        <v>2109874.949091163</v>
       </c>
     </row>
     <row r="4">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1396.098400416131</v>
+        <v>1490.226112120503</v>
       </c>
       <c r="AB4" t="n">
-        <v>1910.203422963865</v>
+        <v>2038.993110739352</v>
       </c>
       <c r="AC4" t="n">
-        <v>1727.896289263536</v>
+        <v>1844.394469995191</v>
       </c>
       <c r="AD4" t="n">
-        <v>1396098.40041613</v>
+        <v>1490226.112120503</v>
       </c>
       <c r="AE4" t="n">
-        <v>1910203.422963866</v>
+        <v>2038993.110739351</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.493590917044754e-06</v>
+        <v>2.290790213176668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1727896.289263536</v>
+        <v>1844394.469995192</v>
       </c>
     </row>
     <row r="5">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1287.675475297614</v>
+        <v>1374.030335864479</v>
       </c>
       <c r="AB5" t="n">
-        <v>1761.854393534843</v>
+        <v>1880.008923469998</v>
       </c>
       <c r="AC5" t="n">
-        <v>1593.705482994048</v>
+        <v>1700.583510423118</v>
       </c>
       <c r="AD5" t="n">
-        <v>1287675.475297614</v>
+        <v>1374030.335864479</v>
       </c>
       <c r="AE5" t="n">
-        <v>1761854.393534843</v>
+        <v>1880008.923469998</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548608356793879e-06</v>
+        <v>2.375173032523684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.29375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1593705.482994048</v>
+        <v>1700583.510423118</v>
       </c>
     </row>
     <row r="6">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1211.124170144793</v>
+        <v>1305.251792340615</v>
       </c>
       <c r="AB6" t="n">
-        <v>1657.113520619521</v>
+        <v>1785.903085925459</v>
       </c>
       <c r="AC6" t="n">
-        <v>1498.960931985026</v>
+        <v>1615.459001935456</v>
       </c>
       <c r="AD6" t="n">
-        <v>1211124.170144793</v>
+        <v>1305251.792340615</v>
       </c>
       <c r="AE6" t="n">
-        <v>1657113.520619521</v>
+        <v>1785903.085925459</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582414253507196e-06</v>
+        <v>2.427022716700766e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.81875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1498960.931985026</v>
+        <v>1615459.001935456</v>
       </c>
     </row>
     <row r="7">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1160.75806257268</v>
+        <v>1247.198174485564</v>
       </c>
       <c r="AB7" t="n">
-        <v>1588.200390243509</v>
+        <v>1706.471564831314</v>
       </c>
       <c r="AC7" t="n">
-        <v>1436.624774051915</v>
+        <v>1543.608313731697</v>
       </c>
       <c r="AD7" t="n">
-        <v>1160758.062572679</v>
+        <v>1247198.174485564</v>
       </c>
       <c r="AE7" t="n">
-        <v>1588200.390243509</v>
+        <v>1706471.564831314</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602631505463199e-06</v>
+        <v>2.458030861159609e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.54375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1436624.774051915</v>
+        <v>1543608.313731697</v>
       </c>
     </row>
     <row r="8">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1162.679769834114</v>
+        <v>1249.119881746999</v>
       </c>
       <c r="AB8" t="n">
-        <v>1590.829754898345</v>
+        <v>1709.10092948615</v>
       </c>
       <c r="AC8" t="n">
-        <v>1439.00319583443</v>
+        <v>1545.986735514211</v>
       </c>
       <c r="AD8" t="n">
-        <v>1162679.769834114</v>
+        <v>1249119.881746999</v>
       </c>
       <c r="AE8" t="n">
-        <v>1590829.754898345</v>
+        <v>1709100.92948615</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604951517982741e-06</v>
+        <v>2.461589172818821e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1439003.19583443</v>
+        <v>1545986.735514211</v>
       </c>
     </row>
   </sheetData>
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1875.926887655686</v>
+        <v>1990.780196806464</v>
       </c>
       <c r="AB2" t="n">
-        <v>2566.72592774388</v>
+        <v>2723.873292294367</v>
       </c>
       <c r="AC2" t="n">
-        <v>2321.761207622469</v>
+        <v>2463.910648257968</v>
       </c>
       <c r="AD2" t="n">
-        <v>1875926.887655685</v>
+        <v>1990780.196806464</v>
       </c>
       <c r="AE2" t="n">
-        <v>2566725.92774388</v>
+        <v>2723873.292294367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227058174352023e-06</v>
+        <v>1.917254193253995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.10625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2321761.207622469</v>
+        <v>2463910.648257968</v>
       </c>
     </row>
     <row r="3">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1296.305913075412</v>
+        <v>1395.822612537457</v>
       </c>
       <c r="AB3" t="n">
-        <v>1773.662939250468</v>
+        <v>1909.826077821362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1604.387037679973</v>
+        <v>1727.554957411825</v>
       </c>
       <c r="AD3" t="n">
-        <v>1296305.913075412</v>
+        <v>1395822.612537457</v>
       </c>
       <c r="AE3" t="n">
-        <v>1773662.939250468</v>
+        <v>1909826.077821362</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499280636055154e-06</v>
+        <v>2.342596419977569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.82083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1604387.037679973</v>
+        <v>1727554.957411825</v>
       </c>
     </row>
     <row r="4">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1139.444314185149</v>
+        <v>1223.709923830133</v>
       </c>
       <c r="AB4" t="n">
-        <v>1559.037979403473</v>
+        <v>1674.333904056068</v>
       </c>
       <c r="AC4" t="n">
-        <v>1410.245582772752</v>
+        <v>1514.53782619535</v>
       </c>
       <c r="AD4" t="n">
-        <v>1139444.314185149</v>
+        <v>1223709.923830133</v>
       </c>
       <c r="AE4" t="n">
-        <v>1559037.979403473</v>
+        <v>1674333.904056068</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.592878535356104e-06</v>
+        <v>2.488841291382525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.42083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1410245.582772752</v>
+        <v>1514537.82619535</v>
       </c>
     </row>
     <row r="5">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1052.344468228591</v>
+        <v>1144.192907600544</v>
       </c>
       <c r="AB5" t="n">
-        <v>1439.864127591702</v>
+        <v>1565.535214407574</v>
       </c>
       <c r="AC5" t="n">
-        <v>1302.445516116345</v>
+        <v>1416.122730786988</v>
       </c>
       <c r="AD5" t="n">
-        <v>1052344.468228591</v>
+        <v>1144192.907600544</v>
       </c>
       <c r="AE5" t="n">
-        <v>1439864.127591702</v>
+        <v>1565535.214407574</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.637106114146663e-06</v>
+        <v>2.557946010837615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.81458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1302445.516116345</v>
+        <v>1416122.730786988</v>
       </c>
     </row>
     <row r="6">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1057.237777374035</v>
+        <v>1149.086216745989</v>
       </c>
       <c r="AB6" t="n">
-        <v>1446.559369042064</v>
+        <v>1572.230455857935</v>
       </c>
       <c r="AC6" t="n">
-        <v>1308.501773119514</v>
+        <v>1422.178987790157</v>
       </c>
       <c r="AD6" t="n">
-        <v>1057237.777374035</v>
+        <v>1149086.216745989</v>
       </c>
       <c r="AE6" t="n">
-        <v>1446559.369042064</v>
+        <v>1572230.455857935</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.638306087214624e-06</v>
+        <v>2.559820945086397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>1308501.773119514</v>
+        <v>1422178.987790157</v>
       </c>
     </row>
   </sheetData>
@@ -49000,28 +49000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>978.5525031596501</v>
+        <v>1073.25999237422</v>
       </c>
       <c r="AB2" t="n">
-        <v>1338.898705512639</v>
+        <v>1468.481670455554</v>
       </c>
       <c r="AC2" t="n">
-        <v>1211.116092214647</v>
+        <v>1328.331840854244</v>
       </c>
       <c r="AD2" t="n">
-        <v>978552.5031596501</v>
+        <v>1073259.992374219</v>
       </c>
       <c r="AE2" t="n">
-        <v>1338898.705512639</v>
+        <v>1468481.670455554</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.561715796857439e-06</v>
+        <v>2.545090960816983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1211116.092214647</v>
+        <v>1328331.840854244</v>
       </c>
     </row>
     <row r="3">
@@ -49106,28 +49106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>861.0564778189532</v>
+        <v>941.2658850783157</v>
       </c>
       <c r="AB3" t="n">
-        <v>1178.135460082696</v>
+        <v>1287.881509684264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1065.695865295907</v>
+        <v>1164.967905953048</v>
       </c>
       <c r="AD3" t="n">
-        <v>861056.4778189532</v>
+        <v>941265.8850783157</v>
       </c>
       <c r="AE3" t="n">
-        <v>1178135.460082697</v>
+        <v>1287881.509684264</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.664198796250652e-06</v>
+        <v>2.712105058976156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1065695.865295907</v>
+        <v>1164967.905953048</v>
       </c>
     </row>
   </sheetData>
@@ -49403,28 +49403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5218.771950933645</v>
+        <v>5401.139662795919</v>
       </c>
       <c r="AB2" t="n">
-        <v>7140.554019237057</v>
+        <v>7390.077568102659</v>
       </c>
       <c r="AC2" t="n">
-        <v>6459.069565471311</v>
+        <v>6684.778937041672</v>
       </c>
       <c r="AD2" t="n">
-        <v>5218771.950933645</v>
+        <v>5401139.662795919</v>
       </c>
       <c r="AE2" t="n">
-        <v>7140554.019237057</v>
+        <v>7390077.568102659</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.42883080001861e-07</v>
+        <v>1.097521202582049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.14791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6459069.565471311</v>
+        <v>6684778.937041672</v>
       </c>
     </row>
     <row r="3">
@@ -49509,28 +49509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2530.972812135387</v>
+        <v>2647.048299738463</v>
       </c>
       <c r="AB3" t="n">
-        <v>3462.988660203835</v>
+        <v>3621.808263231471</v>
       </c>
       <c r="AC3" t="n">
-        <v>3132.48588280896</v>
+        <v>3276.147965828346</v>
       </c>
       <c r="AD3" t="n">
-        <v>2530972.812135387</v>
+        <v>2647048.299738463</v>
       </c>
       <c r="AE3" t="n">
-        <v>3462988.660203835</v>
+        <v>3621808.263231471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134943164476746e-06</v>
+        <v>1.676743245701159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.24583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3132485.88280896</v>
+        <v>3276147.965828346</v>
       </c>
     </row>
     <row r="4">
@@ -49615,28 +49615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2080.491043912778</v>
+        <v>2188.183995022062</v>
       </c>
       <c r="AB4" t="n">
-        <v>2846.619631068475</v>
+        <v>2993.969877853885</v>
       </c>
       <c r="AC4" t="n">
-        <v>2574.942248735044</v>
+        <v>2708.229594774625</v>
       </c>
       <c r="AD4" t="n">
-        <v>2080491.043912778</v>
+        <v>2188183.995022062</v>
       </c>
       <c r="AE4" t="n">
-        <v>2846619.631068475</v>
+        <v>2993969.877853885</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275426232422416e-06</v>
+        <v>1.884290233679081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.13333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2574942.248735044</v>
+        <v>2708229.594774625</v>
       </c>
     </row>
     <row r="5">
@@ -49721,28 +49721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1883.665629255447</v>
+        <v>1991.35849085618</v>
       </c>
       <c r="AB5" t="n">
-        <v>2577.314415409859</v>
+        <v>2724.664539725721</v>
       </c>
       <c r="AC5" t="n">
-        <v>2331.339144886642</v>
+        <v>2464.626380144995</v>
       </c>
       <c r="AD5" t="n">
-        <v>1883665.629255447</v>
+        <v>1991358.49085618</v>
       </c>
       <c r="AE5" t="n">
-        <v>2577314.415409859</v>
+        <v>2724664.539725721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348360486755656e-06</v>
+        <v>1.992041901041114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.775</v>
       </c>
       <c r="AH5" t="n">
-        <v>2331339.144886642</v>
+        <v>2464626.380144996</v>
       </c>
     </row>
     <row r="6">
@@ -49827,28 +49827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1779.441679825251</v>
+        <v>1870.710921365235</v>
       </c>
       <c r="AB6" t="n">
-        <v>2434.710609763329</v>
+        <v>2559.589212553095</v>
       </c>
       <c r="AC6" t="n">
-        <v>2202.345246305319</v>
+        <v>2315.305610513049</v>
       </c>
       <c r="AD6" t="n">
-        <v>1779441.679825251</v>
+        <v>1870710.921365235</v>
       </c>
       <c r="AE6" t="n">
-        <v>2434710.609763328</v>
+        <v>2559589.212553095</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39344431907557e-06</v>
+        <v>2.058647889515957e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.00416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2202345.246305319</v>
+        <v>2315305.610513049</v>
       </c>
     </row>
     <row r="7">
@@ -49933,28 +49933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1700.7766245472</v>
+        <v>1800.257631363283</v>
       </c>
       <c r="AB7" t="n">
-        <v>2327.077610674593</v>
+        <v>2463.191912992632</v>
       </c>
       <c r="AC7" t="n">
-        <v>2104.984589585749</v>
+        <v>2228.108333928178</v>
       </c>
       <c r="AD7" t="n">
-        <v>1700776.6245472</v>
+        <v>1800257.631363283</v>
       </c>
       <c r="AE7" t="n">
-        <v>2327077.610674593</v>
+        <v>2463191.912992632</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.42391052658186e-06</v>
+        <v>2.103658079679843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.5125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2104984.589585749</v>
+        <v>2228108.333928178</v>
       </c>
     </row>
     <row r="8">
@@ -50039,28 +50039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1647.253386664698</v>
+        <v>1738.437287350111</v>
       </c>
       <c r="AB8" t="n">
-        <v>2253.844755325149</v>
+        <v>2378.606590992717</v>
       </c>
       <c r="AC8" t="n">
-        <v>2038.740975167898</v>
+        <v>2151.59571634369</v>
       </c>
       <c r="AD8" t="n">
-        <v>1647253.386664698</v>
+        <v>1738437.287350111</v>
       </c>
       <c r="AE8" t="n">
-        <v>2253844.755325149</v>
+        <v>2378606.590992718</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.446221638139497e-06</v>
+        <v>2.136620087628144e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.16458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2038740.975167898</v>
+        <v>2151595.71634369</v>
       </c>
     </row>
     <row r="9">
@@ -50145,28 +50145,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1596.42076870606</v>
+        <v>1695.816434667571</v>
       </c>
       <c r="AB9" t="n">
-        <v>2184.293324857309</v>
+        <v>2320.290860053151</v>
       </c>
       <c r="AC9" t="n">
-        <v>1975.827435607863</v>
+        <v>2098.845556918353</v>
       </c>
       <c r="AD9" t="n">
-        <v>1596420.76870606</v>
+        <v>1695816.434667571</v>
       </c>
       <c r="AE9" t="n">
-        <v>2184293.324857309</v>
+        <v>2320290.860053151</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.462531830036804e-06</v>
+        <v>2.160716452059316e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.91666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1975827.435607863</v>
+        <v>2098845.556918353</v>
       </c>
     </row>
     <row r="10">
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1559.849253468217</v>
+        <v>1651.11840549965</v>
       </c>
       <c r="AB10" t="n">
-        <v>2134.254564287509</v>
+        <v>2259.133044607727</v>
       </c>
       <c r="AC10" t="n">
-        <v>1930.564304117003</v>
+        <v>2043.524557543507</v>
       </c>
       <c r="AD10" t="n">
-        <v>1559849.253468217</v>
+        <v>1651118.40549965</v>
       </c>
       <c r="AE10" t="n">
-        <v>2134254.564287509</v>
+        <v>2259133.044607727</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476380106176027e-06</v>
+        <v>2.181175629406537e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.7125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1930564.304117003</v>
+        <v>2043524.557543507</v>
       </c>
     </row>
     <row r="11">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1527.33294457309</v>
+        <v>1618.602096604523</v>
       </c>
       <c r="AB11" t="n">
-        <v>2089.764315938892</v>
+        <v>2214.64279625911</v>
       </c>
       <c r="AC11" t="n">
-        <v>1890.320142628322</v>
+        <v>2003.280396054826</v>
       </c>
       <c r="AD11" t="n">
-        <v>1527332.94457309</v>
+        <v>1618602.096604523</v>
       </c>
       <c r="AE11" t="n">
-        <v>2089764.315938892</v>
+        <v>2214642.79625911</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.487150987617644e-06</v>
+        <v>2.197088322898821e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.55416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1890320.142628322</v>
+        <v>2003280.396054826</v>
       </c>
     </row>
     <row r="12">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1499.457633554557</v>
+        <v>1590.556193385399</v>
       </c>
       <c r="AB12" t="n">
-        <v>2051.624085631406</v>
+        <v>2176.269154176777</v>
       </c>
       <c r="AC12" t="n">
-        <v>1855.819962371233</v>
+        <v>1968.569080515086</v>
       </c>
       <c r="AD12" t="n">
-        <v>1499457.633554557</v>
+        <v>1590556.193385398</v>
       </c>
       <c r="AE12" t="n">
-        <v>2051624.085631406</v>
+        <v>2176269.154176777</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.495613823036058e-06</v>
+        <v>2.2095911534999e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1855819.962371233</v>
+        <v>1968569.080515086</v>
       </c>
     </row>
     <row r="13">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1472.235393556568</v>
+        <v>1563.333953387409</v>
       </c>
       <c r="AB13" t="n">
-        <v>2014.377415905688</v>
+        <v>2139.022484451059</v>
       </c>
       <c r="AC13" t="n">
-        <v>1822.128062528108</v>
+        <v>1934.877180671961</v>
       </c>
       <c r="AD13" t="n">
-        <v>1472235.393556568</v>
+        <v>1563333.953387409</v>
       </c>
       <c r="AE13" t="n">
-        <v>2014377.415905688</v>
+        <v>2139022.484451059</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.502076351901029e-06</v>
+        <v>2.21913876959527e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.34166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1822128.062528108</v>
+        <v>1934877.180671961</v>
       </c>
     </row>
     <row r="14">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1447.04714696318</v>
+        <v>1538.145706794021</v>
       </c>
       <c r="AB14" t="n">
-        <v>1979.913745689601</v>
+        <v>2104.558814234972</v>
       </c>
       <c r="AC14" t="n">
-        <v>1790.95355662738</v>
+        <v>1903.702674771233</v>
       </c>
       <c r="AD14" t="n">
-        <v>1447047.14696318</v>
+        <v>1538145.706794021</v>
       </c>
       <c r="AE14" t="n">
-        <v>1979913.745689601</v>
+        <v>2104558.814234972</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.50869275050088e-06</v>
+        <v>2.228913709883387e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.24791666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1790953.55662738</v>
+        <v>1903702.674771233</v>
       </c>
     </row>
     <row r="15">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1430.974162479981</v>
+        <v>1522.072722310822</v>
       </c>
       <c r="AB15" t="n">
-        <v>1957.921979229658</v>
+        <v>2082.567047775029</v>
       </c>
       <c r="AC15" t="n">
-        <v>1771.060653492736</v>
+        <v>1883.809771636589</v>
       </c>
       <c r="AD15" t="n">
-        <v>1430974.162479981</v>
+        <v>1522072.722310822</v>
       </c>
       <c r="AE15" t="n">
-        <v>1957921.979229658</v>
+        <v>2082567.047775029</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.512231754403126e-06</v>
+        <v>2.234142166316566e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="AH15" t="n">
-        <v>1771060.653492736</v>
+        <v>1883809.771636589</v>
       </c>
     </row>
     <row r="16">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1432.096854707932</v>
+        <v>1523.195414538773</v>
       </c>
       <c r="AB16" t="n">
-        <v>1959.458096265626</v>
+        <v>2084.103164810997</v>
       </c>
       <c r="AC16" t="n">
-        <v>1772.450165674745</v>
+        <v>1885.199283818597</v>
       </c>
       <c r="AD16" t="n">
-        <v>1432096.854707932</v>
+        <v>1523195.414538773</v>
       </c>
       <c r="AE16" t="n">
-        <v>1959458.096265626</v>
+        <v>2084103.164810997</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.513462712282168e-06</v>
+        <v>2.235960759858541e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.18125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1772450.165674745</v>
+        <v>1885199.283818597</v>
       </c>
     </row>
   </sheetData>
@@ -51184,28 +51184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8414.715500942988</v>
+        <v>8653.35633877363</v>
       </c>
       <c r="AB2" t="n">
-        <v>11513.38497943858</v>
+        <v>11839.90390184921</v>
       </c>
       <c r="AC2" t="n">
-        <v>10414.56367613784</v>
+        <v>10709.92009086577</v>
       </c>
       <c r="AD2" t="n">
-        <v>8414715.500942988</v>
+        <v>8653356.338773631</v>
       </c>
       <c r="AE2" t="n">
-        <v>11513384.97943858</v>
+        <v>11839903.90184921</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735229536706943e-07</v>
+        <v>8.328522630725023e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10414563.67613784</v>
+        <v>10709920.09086577</v>
       </c>
     </row>
     <row r="3">
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3236.173172296952</v>
+        <v>3372.551556893688</v>
       </c>
       <c r="AB3" t="n">
-        <v>4427.874904221112</v>
+        <v>4614.473826616074</v>
       </c>
       <c r="AC3" t="n">
-        <v>4005.284737923541</v>
+        <v>4174.074921058354</v>
       </c>
       <c r="AD3" t="n">
-        <v>3236173.172296952</v>
+        <v>3372551.556893688</v>
       </c>
       <c r="AE3" t="n">
-        <v>4427874.904221112</v>
+        <v>4614473.826616074</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.003220347604942e-06</v>
+        <v>1.456845504640266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.78958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4005284.737923541</v>
+        <v>4174074.921058354</v>
       </c>
     </row>
     <row r="4">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2546.680418648745</v>
+        <v>2666.000837564067</v>
       </c>
       <c r="AB4" t="n">
-        <v>3484.480500406105</v>
+        <v>3647.739961611422</v>
       </c>
       <c r="AC4" t="n">
-        <v>3151.926571946313</v>
+        <v>3299.604779310281</v>
       </c>
       <c r="AD4" t="n">
-        <v>2546680.418648745</v>
+        <v>2666000.837564067</v>
       </c>
       <c r="AE4" t="n">
-        <v>3484480.500406105</v>
+        <v>3647739.961611422</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.161725010860881e-06</v>
+        <v>1.68702106545322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3151926.571946313</v>
+        <v>3299604.779310281</v>
       </c>
     </row>
     <row r="5">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2271.17146947105</v>
+        <v>2381.962905545665</v>
       </c>
       <c r="AB5" t="n">
-        <v>3107.517001544151</v>
+        <v>3259.106732154646</v>
       </c>
       <c r="AC5" t="n">
-        <v>2810.939940344163</v>
+        <v>2948.062159822711</v>
       </c>
       <c r="AD5" t="n">
-        <v>2271171.46947105</v>
+        <v>2381962.905545665</v>
       </c>
       <c r="AE5" t="n">
-        <v>3107517.001544151</v>
+        <v>3259106.732154646</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244758323698417e-06</v>
+        <v>1.807599469620904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.81666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2810939.940344164</v>
+        <v>2948062.159822711</v>
       </c>
     </row>
     <row r="6">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2119.416823001046</v>
+        <v>2230.122918221091</v>
       </c>
       <c r="AB6" t="n">
-        <v>2899.879599301217</v>
+        <v>3051.352562789683</v>
       </c>
       <c r="AC6" t="n">
-        <v>2623.119160350488</v>
+        <v>2760.135756797139</v>
       </c>
       <c r="AD6" t="n">
-        <v>2119416.823001046</v>
+        <v>2230122.918221091</v>
       </c>
       <c r="AE6" t="n">
-        <v>2899879.599301217</v>
+        <v>3051352.562789683</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296802417994801e-06</v>
+        <v>1.883176290804578e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.81875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2623119.160350488</v>
+        <v>2760135.75679714</v>
       </c>
     </row>
     <row r="7">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2027.482436654152</v>
+        <v>2129.65963854204</v>
       </c>
       <c r="AB7" t="n">
-        <v>2774.09091604252</v>
+        <v>2913.894271405534</v>
       </c>
       <c r="AC7" t="n">
-        <v>2509.335572476475</v>
+        <v>2635.796291818885</v>
       </c>
       <c r="AD7" t="n">
-        <v>2027482.436654152</v>
+        <v>2129659.63854204</v>
       </c>
       <c r="AE7" t="n">
-        <v>2774090.91604252</v>
+        <v>2913894.271405534</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332091575950754e-06</v>
+        <v>1.934422112575843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.18958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2509335.572476475</v>
+        <v>2635796.291818885</v>
       </c>
     </row>
     <row r="8">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1951.376696597863</v>
+        <v>2053.639149831771</v>
       </c>
       <c r="AB8" t="n">
-        <v>2669.959684949217</v>
+        <v>2809.879684964881</v>
       </c>
       <c r="AC8" t="n">
-        <v>2415.142479929616</v>
+        <v>2541.708711522739</v>
       </c>
       <c r="AD8" t="n">
-        <v>1951376.696597863</v>
+        <v>2053639.149831771</v>
       </c>
       <c r="AE8" t="n">
-        <v>2669959.684949217</v>
+        <v>2809879.684964881</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.358484307531257e-06</v>
+        <v>1.972748819614857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.73958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2415142.479929616</v>
+        <v>2541708.711522739</v>
       </c>
     </row>
     <row r="9">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1899.201530904584</v>
+        <v>1992.935090806337</v>
       </c>
       <c r="AB9" t="n">
-        <v>2598.571321441816</v>
+        <v>2726.821713332206</v>
       </c>
       <c r="AC9" t="n">
-        <v>2350.567321641164</v>
+        <v>2466.577676130091</v>
       </c>
       <c r="AD9" t="n">
-        <v>1899201.530904584</v>
+        <v>1992935.090806337</v>
       </c>
       <c r="AE9" t="n">
-        <v>2598571.321441816</v>
+        <v>2726821.713332206</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.37850126687602e-06</v>
+        <v>2.001816827762423e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2350567.321641164</v>
+        <v>2466577.676130091</v>
       </c>
     </row>
     <row r="10">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1860.896159254337</v>
+        <v>1954.629719156089</v>
       </c>
       <c r="AB10" t="n">
-        <v>2546.160222036218</v>
+        <v>2674.410613926609</v>
       </c>
       <c r="AC10" t="n">
-        <v>2303.158264003397</v>
+        <v>2419.168618492324</v>
       </c>
       <c r="AD10" t="n">
-        <v>1860896.159254337</v>
+        <v>1954629.719156089</v>
       </c>
       <c r="AE10" t="n">
-        <v>2546160.222036218</v>
+        <v>2674410.613926609</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.392883822849664e-06</v>
+        <v>2.022702729912897e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.17708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2303158.264003396</v>
+        <v>2419168.618492324</v>
       </c>
     </row>
     <row r="11">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1819.959971102202</v>
+        <v>1922.137083481539</v>
       </c>
       <c r="AB11" t="n">
-        <v>2490.149523429306</v>
+        <v>2629.952756322773</v>
       </c>
       <c r="AC11" t="n">
-        <v>2252.49314786002</v>
+        <v>2378.953756421203</v>
       </c>
       <c r="AD11" t="n">
-        <v>1819959.971102202</v>
+        <v>1922137.083481539</v>
       </c>
       <c r="AE11" t="n">
-        <v>2490149.523429306</v>
+        <v>2629952.756322773</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.404300903364826e-06</v>
+        <v>2.039282260485954e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.99583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2252493.147860019</v>
+        <v>2378953.756421203</v>
       </c>
     </row>
     <row r="12">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1788.319824274168</v>
+        <v>1890.496936653505</v>
       </c>
       <c r="AB12" t="n">
-        <v>2446.858078674427</v>
+        <v>2586.661311567894</v>
       </c>
       <c r="AC12" t="n">
-        <v>2213.333377832621</v>
+        <v>2339.793986393805</v>
       </c>
       <c r="AD12" t="n">
-        <v>1788319.824274168</v>
+        <v>1890496.936653505</v>
       </c>
       <c r="AE12" t="n">
-        <v>2446858.078674427</v>
+        <v>2586661.311567894</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.415569710107062e-06</v>
+        <v>2.05564647248014e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2213333.377832621</v>
+        <v>2339793.986393805</v>
       </c>
     </row>
     <row r="13">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1761.843383060489</v>
+        <v>1855.662194308263</v>
       </c>
       <c r="AB13" t="n">
-        <v>2410.631843747723</v>
+        <v>2538.998880290763</v>
       </c>
       <c r="AC13" t="n">
-        <v>2180.564523923482</v>
+        <v>2296.680390663121</v>
       </c>
       <c r="AD13" t="n">
-        <v>1761843.38306049</v>
+        <v>1855662.194308263</v>
       </c>
       <c r="AE13" t="n">
-        <v>2410631.843747723</v>
+        <v>2538998.880290763</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.423873041390816e-06</v>
+        <v>2.067704312896908e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.69375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2180564.523923482</v>
+        <v>2296680.390663121</v>
       </c>
     </row>
     <row r="14">
@@ -52456,28 +52456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1738.655854353311</v>
+        <v>1832.474665601084</v>
       </c>
       <c r="AB14" t="n">
-        <v>2378.905644008991</v>
+        <v>2507.272680552031</v>
       </c>
       <c r="AC14" t="n">
-        <v>2151.866228159814</v>
+        <v>2267.982094899453</v>
       </c>
       <c r="AD14" t="n">
-        <v>1738655.854353311</v>
+        <v>1832474.665601084</v>
       </c>
       <c r="AE14" t="n">
-        <v>2378905.644008991</v>
+        <v>2507272.680552031</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.431138456264101e-06</v>
+        <v>2.07825492326158e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.58333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2151866.228159814</v>
+        <v>2267982.094899453</v>
       </c>
     </row>
     <row r="15">
@@ -52562,28 +52562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1717.047020205966</v>
+        <v>1810.695239253147</v>
       </c>
       <c r="AB15" t="n">
-        <v>2349.339483814113</v>
+        <v>2477.473108582306</v>
       </c>
       <c r="AC15" t="n">
-        <v>2125.121820797568</v>
+        <v>2241.026552254556</v>
       </c>
       <c r="AD15" t="n">
-        <v>1717047.020205966</v>
+        <v>1810695.239253147</v>
       </c>
       <c r="AE15" t="n">
-        <v>2349339.483814113</v>
+        <v>2477473.108582306</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437069407181067e-06</v>
+        <v>2.086867666416415e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.49583333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2125121.820797568</v>
+        <v>2241026.552254557</v>
       </c>
     </row>
     <row r="16">
@@ -52668,28 +52668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1696.415624577069</v>
+        <v>1790.06384362425</v>
       </c>
       <c r="AB16" t="n">
-        <v>2321.11069812172</v>
+        <v>2449.244322889913</v>
       </c>
       <c r="AC16" t="n">
-        <v>2099.587150792308</v>
+        <v>2215.491882249296</v>
       </c>
       <c r="AD16" t="n">
-        <v>1696415.624577069</v>
+        <v>1790063.84362425</v>
       </c>
       <c r="AE16" t="n">
-        <v>2321110.69812172</v>
+        <v>2449244.322889913</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.442555536779262e-06</v>
+        <v>2.094834453834637e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.41458333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2099587.150792308</v>
+        <v>2215491.882249296</v>
       </c>
     </row>
     <row r="17">
@@ -52774,28 +52774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1677.326730520582</v>
+        <v>1770.974949567763</v>
       </c>
       <c r="AB17" t="n">
-        <v>2294.992431131064</v>
+        <v>2423.126055899257</v>
       </c>
       <c r="AC17" t="n">
-        <v>2075.961574546022</v>
+        <v>2191.86630600301</v>
       </c>
       <c r="AD17" t="n">
-        <v>1677326.730520582</v>
+        <v>1770974.949567763</v>
       </c>
       <c r="AE17" t="n">
-        <v>2294992.431131064</v>
+        <v>2423126.055899257</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.447152023739911e-06</v>
+        <v>2.101509329779634e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.34583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2075961.574546022</v>
+        <v>2191866.30600301</v>
       </c>
     </row>
     <row r="18">
@@ -52880,28 +52880,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1657.660812625271</v>
+        <v>1751.309031672452</v>
       </c>
       <c r="AB18" t="n">
-        <v>2268.084654667633</v>
+        <v>2396.218279435826</v>
       </c>
       <c r="AC18" t="n">
-        <v>2051.62183850296</v>
+        <v>2167.526569959948</v>
       </c>
       <c r="AD18" t="n">
-        <v>1657660.812625271</v>
+        <v>1751309.031672452</v>
       </c>
       <c r="AE18" t="n">
-        <v>2268084.654667634</v>
+        <v>2396218.279435826</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.452045058246409e-06</v>
+        <v>2.108614842882372e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.275</v>
       </c>
       <c r="AH18" t="n">
-        <v>2051621.83850296</v>
+        <v>2167526.569959948</v>
       </c>
     </row>
     <row r="19">
@@ -52986,28 +52986,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1639.955286801839</v>
+        <v>1733.60350584902</v>
       </c>
       <c r="AB19" t="n">
-        <v>2243.859173123342</v>
+        <v>2371.992797891535</v>
       </c>
       <c r="AC19" t="n">
-        <v>2029.708402916579</v>
+        <v>2145.613134373567</v>
       </c>
       <c r="AD19" t="n">
-        <v>1639955.286801839</v>
+        <v>1733603.50584902</v>
       </c>
       <c r="AE19" t="n">
-        <v>2243859.173123342</v>
+        <v>2371992.797891535</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.455158807477816e-06</v>
+        <v>2.11313653303866e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.22916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2029708.402916579</v>
+        <v>2145613.134373567</v>
       </c>
     </row>
     <row r="20">
@@ -53092,28 +53092,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1622.285481399433</v>
+        <v>1715.933700446614</v>
       </c>
       <c r="AB20" t="n">
-        <v>2219.682565834974</v>
+        <v>2347.816190603167</v>
       </c>
       <c r="AC20" t="n">
-        <v>2007.839177095731</v>
+        <v>2123.74390855272</v>
       </c>
       <c r="AD20" t="n">
-        <v>1622285.481399433</v>
+        <v>1715933.700446615</v>
       </c>
       <c r="AE20" t="n">
-        <v>2219682.565834974</v>
+        <v>2347816.190603167</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.459013925573845e-06</v>
+        <v>2.118734816089302e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.17291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2007839.177095731</v>
+        <v>2123743.90855272</v>
       </c>
     </row>
     <row r="21">
@@ -53198,28 +53198,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1604.163418243575</v>
+        <v>1697.811637290755</v>
       </c>
       <c r="AB21" t="n">
-        <v>2194.887159536127</v>
+        <v>2323.02078430432</v>
       </c>
       <c r="AC21" t="n">
-        <v>1985.410209573474</v>
+        <v>2101.314941030463</v>
       </c>
       <c r="AD21" t="n">
-        <v>1604163.418243575</v>
+        <v>1697811.637290756</v>
       </c>
       <c r="AE21" t="n">
-        <v>2194887.159536127</v>
+        <v>2323020.78430432</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.462127674805252e-06</v>
+        <v>2.123256506245591e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.12708333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1985410.209573474</v>
+        <v>2101314.941030463</v>
       </c>
     </row>
     <row r="22">
@@ -53304,28 +53304,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1600.048087989324</v>
+        <v>1685.338005904942</v>
       </c>
       <c r="AB22" t="n">
-        <v>2189.256383126704</v>
+        <v>2305.953811544471</v>
       </c>
       <c r="AC22" t="n">
-        <v>1980.316826561723</v>
+        <v>2085.876816197167</v>
       </c>
       <c r="AD22" t="n">
-        <v>1600048.087989324</v>
+        <v>1685338.005904942</v>
       </c>
       <c r="AE22" t="n">
-        <v>2189256.383126704</v>
+        <v>2305953.81154447</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.463165591215722e-06</v>
+        <v>2.124763736297687e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.1125</v>
       </c>
       <c r="AH22" t="n">
-        <v>1980316.826561723</v>
+        <v>2085876.816197167</v>
       </c>
     </row>
     <row r="23">
@@ -53410,28 +53410,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1605.532190072246</v>
+        <v>1690.822107987864</v>
       </c>
       <c r="AB23" t="n">
-        <v>2196.759973538067</v>
+        <v>2313.457401955833</v>
       </c>
       <c r="AC23" t="n">
-        <v>1987.10428483558</v>
+        <v>2092.664274471024</v>
       </c>
       <c r="AD23" t="n">
-        <v>1605532.190072246</v>
+        <v>1690822.107987864</v>
       </c>
       <c r="AE23" t="n">
-        <v>2196759.973538067</v>
+        <v>2313457.401955833</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.462720769896949e-06</v>
+        <v>2.124117780561074e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.11875</v>
       </c>
       <c r="AH23" t="n">
-        <v>1987104.28483558</v>
+        <v>2092664.274471024</v>
       </c>
     </row>
   </sheetData>
@@ -53707,28 +53707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>758.530629768445</v>
+        <v>843.8333460655576</v>
       </c>
       <c r="AB2" t="n">
-        <v>1037.855071658801</v>
+        <v>1154.570011386754</v>
       </c>
       <c r="AC2" t="n">
-        <v>938.8036402584263</v>
+        <v>1044.37946994919</v>
       </c>
       <c r="AD2" t="n">
-        <v>758530.629768445</v>
+        <v>843833.3460655577</v>
       </c>
       <c r="AE2" t="n">
-        <v>1037855.071658801</v>
+        <v>1154570.011386754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62954417758874e-06</v>
+        <v>2.71635305735976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>938803.6402584263</v>
+        <v>1044379.46994919</v>
       </c>
     </row>
   </sheetData>
@@ -54004,28 +54004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2862.584142748091</v>
+        <v>3005.379198603634</v>
       </c>
       <c r="AB2" t="n">
-        <v>3916.71391240756</v>
+        <v>4112.09240750238</v>
       </c>
       <c r="AC2" t="n">
-        <v>3542.908233749736</v>
+        <v>3719.640079488139</v>
       </c>
       <c r="AD2" t="n">
-        <v>2862584.142748091</v>
+        <v>3005379.198603634</v>
       </c>
       <c r="AE2" t="n">
-        <v>3916713.91240756</v>
+        <v>4112092.40750238</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009682321237439e-06</v>
+        <v>1.536642210526739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.69375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3542908.233749736</v>
+        <v>3719640.079488139</v>
       </c>
     </row>
     <row r="3">
@@ -54110,28 +54110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1754.884428426967</v>
+        <v>1857.966868911982</v>
       </c>
       <c r="AB3" t="n">
-        <v>2401.110295010727</v>
+        <v>2542.152237758638</v>
       </c>
       <c r="AC3" t="n">
-        <v>2171.951698434367</v>
+        <v>2299.532796120028</v>
       </c>
       <c r="AD3" t="n">
-        <v>1754884.428426967</v>
+        <v>1857966.868911982</v>
       </c>
       <c r="AE3" t="n">
-        <v>2401110.295010727</v>
+        <v>2542152.237758638</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.337424908771571e-06</v>
+        <v>2.035435824715185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2171951.698434367</v>
+        <v>2299532.796120028</v>
       </c>
     </row>
     <row r="4">
@@ -54216,28 +54216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1510.227472582828</v>
+        <v>1605.367372092026</v>
       </c>
       <c r="AB4" t="n">
-        <v>2066.35985452165</v>
+        <v>2196.534462306273</v>
       </c>
       <c r="AC4" t="n">
-        <v>1869.149370160374</v>
+        <v>1986.900296079241</v>
       </c>
       <c r="AD4" t="n">
-        <v>1510227.472582828</v>
+        <v>1605367.372092026</v>
       </c>
       <c r="AE4" t="n">
-        <v>2066359.85452165</v>
+        <v>2196534.462306273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451408130544778e-06</v>
+        <v>2.208907644697017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.43958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1869149.370160374</v>
+        <v>1986900.296079241</v>
       </c>
     </row>
     <row r="5">
@@ -54322,28 +54322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1393.27100413096</v>
+        <v>1488.496154986179</v>
       </c>
       <c r="AB5" t="n">
-        <v>1906.334854630574</v>
+        <v>2036.626107067846</v>
       </c>
       <c r="AC5" t="n">
-        <v>1724.396931662404</v>
+        <v>1842.253369831984</v>
       </c>
       <c r="AD5" t="n">
-        <v>1393271.00413096</v>
+        <v>1488496.154986179</v>
       </c>
       <c r="AE5" t="n">
-        <v>1906334.854630574</v>
+        <v>2036626.107067846</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.508726340920702e-06</v>
+        <v>2.296140608613383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.54791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1724396.931662404</v>
+        <v>1842253.369831984</v>
       </c>
     </row>
     <row r="6">
@@ -54428,28 +54428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1320.260549331112</v>
+        <v>1407.543248719066</v>
       </c>
       <c r="AB6" t="n">
-        <v>1806.438729379483</v>
+        <v>1925.862769323014</v>
       </c>
       <c r="AC6" t="n">
-        <v>1634.034752400185</v>
+        <v>1742.061129584198</v>
       </c>
       <c r="AD6" t="n">
-        <v>1320260.549331112</v>
+        <v>1407543.248719066</v>
       </c>
       <c r="AE6" t="n">
-        <v>1806438.729379483</v>
+        <v>1925862.769323014</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544978884235389e-06</v>
+        <v>2.351313594338263e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1634034.752400185</v>
+        <v>1742061.129584198</v>
       </c>
     </row>
     <row r="7">
@@ -54534,28 +54534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1258.193619403015</v>
+        <v>1345.561570136989</v>
       </c>
       <c r="AB7" t="n">
-        <v>1721.516017652164</v>
+        <v>1841.056702248344</v>
       </c>
       <c r="AC7" t="n">
-        <v>1557.216945090347</v>
+        <v>1665.348834525072</v>
       </c>
       <c r="AD7" t="n">
-        <v>1258193.619403014</v>
+        <v>1345561.570136989</v>
       </c>
       <c r="AE7" t="n">
-        <v>1721516.017652164</v>
+        <v>1841056.702248344</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.568820646955859e-06</v>
+        <v>2.387598530896067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.68541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1557216.945090347</v>
+        <v>1665348.834525072</v>
       </c>
     </row>
     <row r="8">
@@ -54640,28 +54640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1212.408364672445</v>
+        <v>1299.605723205828</v>
       </c>
       <c r="AB8" t="n">
-        <v>1658.870612226918</v>
+        <v>1778.177885048252</v>
       </c>
       <c r="AC8" t="n">
-        <v>1500.550329235508</v>
+        <v>1608.471083387582</v>
       </c>
       <c r="AD8" t="n">
-        <v>1212408.364672445</v>
+        <v>1299605.723205828</v>
       </c>
       <c r="AE8" t="n">
-        <v>1658870.612226918</v>
+        <v>1778177.885048252</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.585967120145238e-06</v>
+        <v>2.413693861982159e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.45208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1500550.329235508</v>
+        <v>1608471.083387582</v>
       </c>
     </row>
     <row r="9">
@@ -54746,28 +54746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1210.942173712411</v>
+        <v>1298.139532245794</v>
       </c>
       <c r="AB9" t="n">
-        <v>1656.86450507162</v>
+        <v>1776.171777892953</v>
       </c>
       <c r="AC9" t="n">
-        <v>1498.735682131521</v>
+        <v>1606.656436283596</v>
       </c>
       <c r="AD9" t="n">
-        <v>1210942.173712411</v>
+        <v>1298139.532245794</v>
       </c>
       <c r="AE9" t="n">
-        <v>1656864.50507162</v>
+        <v>1776171.777892953</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.587600117591846e-06</v>
+        <v>2.416179131609406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.42916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1498735.682131521</v>
+        <v>1606656.436283596</v>
       </c>
     </row>
   </sheetData>
@@ -55043,28 +55043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4124.572506448611</v>
+        <v>4295.80712809855</v>
       </c>
       <c r="AB2" t="n">
-        <v>5643.422066619971</v>
+        <v>5877.712830299781</v>
       </c>
       <c r="AC2" t="n">
-        <v>5104.821785174164</v>
+        <v>5316.752167197516</v>
       </c>
       <c r="AD2" t="n">
-        <v>4124572.50644861</v>
+        <v>4295807.12809855</v>
       </c>
       <c r="AE2" t="n">
-        <v>5643422.066619971</v>
+        <v>5877712.830299781</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.400406281765483e-07</v>
+        <v>1.254105637217184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5104821.785174164</v>
+        <v>5316752.167197516</v>
       </c>
     </row>
     <row r="3">
@@ -55149,28 +55149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2215.582209976145</v>
+        <v>2329.73871391799</v>
       </c>
       <c r="AB3" t="n">
-        <v>3031.457324278173</v>
+        <v>3187.651289200929</v>
       </c>
       <c r="AC3" t="n">
-        <v>2742.139291926027</v>
+        <v>2883.426324056154</v>
       </c>
       <c r="AD3" t="n">
-        <v>2215582.209976146</v>
+        <v>2329738.71391799</v>
       </c>
       <c r="AE3" t="n">
-        <v>3031457.324278173</v>
+        <v>3187651.289200929</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.208413301172553e-06</v>
+        <v>1.80405314011815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2742139.291926027</v>
+        <v>2883426.324056155</v>
       </c>
     </row>
     <row r="4">
@@ -55255,28 +55255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1852.289871798792</v>
+        <v>1958.194813733034</v>
       </c>
       <c r="AB4" t="n">
-        <v>2534.384719856936</v>
+        <v>2679.288533607656</v>
       </c>
       <c r="AC4" t="n">
-        <v>2292.506599225084</v>
+        <v>2423.580996365215</v>
       </c>
       <c r="AD4" t="n">
-        <v>1852289.871798792</v>
+        <v>1958194.813733034</v>
       </c>
       <c r="AE4" t="n">
-        <v>2534384.719856936</v>
+        <v>2679288.533607656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339536992712744e-06</v>
+        <v>1.999809101458058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.45</v>
       </c>
       <c r="AH4" t="n">
-        <v>2292506.599225084</v>
+        <v>2423580.996365216</v>
       </c>
     </row>
     <row r="5">
@@ -55361,28 +55361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1694.292657442634</v>
+        <v>1792.116719078417</v>
       </c>
       <c r="AB5" t="n">
-        <v>2318.205960829686</v>
+        <v>2452.053157652776</v>
       </c>
       <c r="AC5" t="n">
-        <v>2096.959637550601</v>
+        <v>2218.032645764616</v>
       </c>
       <c r="AD5" t="n">
-        <v>1694292.657442634</v>
+        <v>1792116.719078416</v>
       </c>
       <c r="AE5" t="n">
-        <v>2318205.960829686</v>
+        <v>2452053.157652776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407299955607016e-06</v>
+        <v>2.100973153421488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.275</v>
       </c>
       <c r="AH5" t="n">
-        <v>2096959.637550601</v>
+        <v>2218032.645764616</v>
       </c>
     </row>
     <row r="6">
@@ -55467,28 +55467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1597.905766961572</v>
+        <v>1695.815079943374</v>
       </c>
       <c r="AB6" t="n">
-        <v>2186.325164983999</v>
+        <v>2320.289006459739</v>
       </c>
       <c r="AC6" t="n">
-        <v>1977.665359764567</v>
+        <v>2098.843880229294</v>
       </c>
       <c r="AD6" t="n">
-        <v>1597905.766961572</v>
+        <v>1695815.079943374</v>
       </c>
       <c r="AE6" t="n">
-        <v>2186325.164983999</v>
+        <v>2320289.006459739</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448649513011177e-06</v>
+        <v>2.16270434986321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1977665.359764567</v>
+        <v>2098843.880229294</v>
       </c>
     </row>
     <row r="7">
@@ -55573,28 +55573,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1535.442496302634</v>
+        <v>1625.185677639956</v>
       </c>
       <c r="AB7" t="n">
-        <v>2100.860162383426</v>
+        <v>2223.650742278885</v>
       </c>
       <c r="AC7" t="n">
-        <v>1900.357017061308</v>
+        <v>2011.428636349206</v>
       </c>
       <c r="AD7" t="n">
-        <v>1535442.496302634</v>
+        <v>1625185.677639956</v>
       </c>
       <c r="AE7" t="n">
-        <v>2100860.162383426</v>
+        <v>2223650.742278886</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.476320699715102e-06</v>
+        <v>2.204014960409761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.18541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1900357.017061308</v>
+        <v>2011428.636349206</v>
       </c>
     </row>
     <row r="8">
@@ -55679,28 +55679,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1479.162145473659</v>
+        <v>1576.98611760089</v>
       </c>
       <c r="AB8" t="n">
-        <v>2023.854903465379</v>
+        <v>2157.70197781892</v>
       </c>
       <c r="AC8" t="n">
-        <v>1830.70103197684</v>
+        <v>1951.773929409628</v>
       </c>
       <c r="AD8" t="n">
-        <v>1479162.145473659</v>
+        <v>1576986.11760089</v>
       </c>
       <c r="AE8" t="n">
-        <v>2023854.903465379</v>
+        <v>2157701.97781892</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496445199136138e-06</v>
+        <v>2.234059040807253e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.88958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1830701.03197684</v>
+        <v>1951773.929409628</v>
       </c>
     </row>
     <row r="9">
@@ -55785,28 +55785,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1438.30697161326</v>
+        <v>1528.135404296604</v>
       </c>
       <c r="AB9" t="n">
-        <v>1967.955052186519</v>
+        <v>2090.862276734627</v>
       </c>
       <c r="AC9" t="n">
-        <v>1780.1361840481</v>
+        <v>1891.31331558671</v>
       </c>
       <c r="AD9" t="n">
-        <v>1438306.97161326</v>
+        <v>1528135.404296604</v>
       </c>
       <c r="AE9" t="n">
-        <v>1967955.052186519</v>
+        <v>2090862.276734627</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512167464308823e-06</v>
+        <v>2.257530978617794e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.6625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1780136.1840481</v>
+        <v>1891313.31558671</v>
       </c>
     </row>
     <row r="10">
@@ -55891,28 +55891,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1402.046055131738</v>
+        <v>1491.703895614489</v>
       </c>
       <c r="AB10" t="n">
-        <v>1918.341266537766</v>
+        <v>2041.015079311028</v>
       </c>
       <c r="AC10" t="n">
-        <v>1735.257468468279</v>
+        <v>1846.223464724238</v>
       </c>
       <c r="AD10" t="n">
-        <v>1402046.055131738</v>
+        <v>1491703.895614489</v>
       </c>
       <c r="AE10" t="n">
-        <v>1918341.266537766</v>
+        <v>2041015.079311028</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52427360849179e-06</v>
+        <v>2.27560437073191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.48958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1735257.468468279</v>
+        <v>1846223.464724238</v>
       </c>
     </row>
     <row r="11">
@@ -55997,28 +55997,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1368.846303433004</v>
+        <v>1458.504143915755</v>
       </c>
       <c r="AB11" t="n">
-        <v>1872.915901593886</v>
+        <v>1995.589714367148</v>
       </c>
       <c r="AC11" t="n">
-        <v>1694.167436599742</v>
+        <v>1805.133432855702</v>
       </c>
       <c r="AD11" t="n">
-        <v>1368846.303433004</v>
+        <v>1458504.143915755</v>
       </c>
       <c r="AE11" t="n">
-        <v>1872915.901593886</v>
+        <v>1995589.714367148</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.534178635550582e-06</v>
+        <v>2.290391691552551e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.35</v>
       </c>
       <c r="AH11" t="n">
-        <v>1694167.436599742</v>
+        <v>1805133.432855702</v>
       </c>
     </row>
     <row r="12">
@@ -56103,28 +56103,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1343.356509969917</v>
+        <v>1433.014350452668</v>
       </c>
       <c r="AB12" t="n">
-        <v>1838.039641647367</v>
+        <v>1960.713454420629</v>
       </c>
       <c r="AC12" t="n">
-        <v>1662.619717953381</v>
+        <v>1773.58571420934</v>
       </c>
       <c r="AD12" t="n">
-        <v>1343356.509969917</v>
+        <v>1433014.350452668</v>
       </c>
       <c r="AE12" t="n">
-        <v>1838039.641647368</v>
+        <v>1960713.454420629</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>2.3011887829454e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>1662619.717953381</v>
+        <v>1773585.714209341</v>
       </c>
     </row>
     <row r="13">
@@ -56209,28 +56209,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1346.286752366673</v>
+        <v>1435.944592849424</v>
       </c>
       <c r="AB13" t="n">
-        <v>1842.04892856778</v>
+        <v>1964.722741341041</v>
       </c>
       <c r="AC13" t="n">
-        <v>1666.246364157179</v>
+        <v>1777.212360413138</v>
       </c>
       <c r="AD13" t="n">
-        <v>1346286.752366673</v>
+        <v>1435944.592849424</v>
       </c>
       <c r="AE13" t="n">
-        <v>1842048.928567779</v>
+        <v>1964722.741341041</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541410877530017e-06</v>
+        <v>2.3011887829454e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>1666246.364157179</v>
+        <v>1777212.360413138</v>
       </c>
     </row>
   </sheetData>
